--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2180 +418,2428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.602278587402124</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>44.50591199946992</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01496700284328483</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.01599457852483693</v>
+      </c>
+      <c r="E2">
         <v>5.785260332368356</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4.368251110838685</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>20.98502077066886</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1677866455824802</v>
+      </c>
+      <c r="I2">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="J2">
         <v>3.794500571032878</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>19.11050189009087</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>3.093133492368753</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>18.83966418410055</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>1.271110825488718</v>
       </c>
-      <c r="N2" t="n">
-        <v>124.4510299129324</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>129.3487266169351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.705842496452134</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>46.2771313626905</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01312491018564977</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01402601501408777</v>
+      </c>
+      <c r="E3">
         <v>5.073228291461482</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>4.004230184935462</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>19.23626903977978</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1677866455824802</v>
+      </c>
+      <c r="I3">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="J3">
         <v>2.974502566275772</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>14.98069004096107</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>2.666494389973064</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>16.24108981387978</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.1105900761066834</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>1.747777385046988</v>
       </c>
-      <c r="N3" t="n">
-        <v>116.0309705577484</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>120.928540790898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.852714949286697</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>48.78904245962152</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0140459565144673</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01501029676946235</v>
+      </c>
+      <c r="E4">
         <v>5.429244311914917</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3.943560030618259</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>18.94481041796494</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1572999802335752</v>
+      </c>
+      <c r="I4">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="J4">
         <v>3.360383980279116</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>16.9241309111398</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>2.399844950975758</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>14.61698083249181</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>1.588888531860898</v>
       </c>
-      <c r="N4" t="n">
-        <v>118.9641837654925</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>123.5557754135485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.837651107970332</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>48.53141055224395</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01036177119919719</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01107316974796402</v>
+      </c>
+      <c r="E5">
         <v>4.005180230101169</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.64020925903224</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>17.48751730889072</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1572999802335752</v>
+      </c>
+      <c r="I5">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="J5">
         <v>3.392540764779394</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>17.08608431698803</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>1.813216185181683</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>11.04394107343825</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>1.271110825488718</v>
       </c>
-      <c r="N5" t="n">
-        <v>111.1996525415731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>115.7909912479229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.933683096362161</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>50.1738139617758</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.01243412543903663</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.01328780369755683</v>
+      </c>
+      <c r="E6">
         <v>4.806216276121401</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4.307580956521482</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>20.693562148854</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1992466416291952</v>
+      </c>
+      <c r="I6">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="J6">
         <v>2.910188997275215</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>14.65678322926461</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>1.919875960780607</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>11.69358466599345</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.06032185969455459</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.9533331191165386</v>
       </c>
-      <c r="N6" t="n">
-        <v>115.1213783971989</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>120.9370266653388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.993938461627624</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>51.20434159128589</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.01082229436360595</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.01156531062565131</v>
+      </c>
+      <c r="E7">
         <v>4.183188240327887</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>4.489591419473095</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>21.56793801429854</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I7">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J7">
         <v>2.556464367772151</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>12.87529576493411</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>1.546566746184377</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>9.419832092050274</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>2.065555091419167</v>
       </c>
-      <c r="N7" t="n">
-        <v>113.0442314464083</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>118.5537272320316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.280151446638568</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>56.09934783145919</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.01197360227462786</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.01279566281986954</v>
+      </c>
+      <c r="E8">
         <v>4.628208265894683</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>4.24691080220428</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>20.40210352703916</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.3565466218627704</v>
+      </c>
+      <c r="I8">
+        <v>10.04887527581972</v>
+      </c>
+      <c r="J8">
         <v>2.781561859274102</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>14.0089696058717</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>1.013267868189764</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>6.171614129274317</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1105900761066834</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>1.747777385046988</v>
       </c>
-      <c r="N8" t="n">
-        <v>114.5024763992741</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>124.9087203575018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.619087876256788</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>61.89606574745383</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.01013150961699281</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.01082709930912038</v>
+      </c>
+      <c r="E9">
         <v>3.916176224987809</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.064900339252667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>19.52772766159463</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.6501732516321108</v>
+      </c>
+      <c r="I9">
+        <v>18.32441962061244</v>
+      </c>
+      <c r="J9">
         <v>2.604699544522568</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>13.11822587370645</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>1.013267868189764</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>6.171614129274317</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>1.112221972302628</v>
       </c>
-      <c r="N9" t="n">
-        <v>117.1244942501354</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>136.0997827120721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3.477864363915861</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>59.48076661578937</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0115130791102191</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.01230352194218225</v>
+      </c>
+      <c r="E10">
         <v>4.450200255667966</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5.035622808327931</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>24.19106561063216</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.786499901167876</v>
+      </c>
+      <c r="I10">
+        <v>22.16663663783763</v>
+      </c>
+      <c r="J10">
         <v>1.39882012576212</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>7.044973154397907</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>4.547505147886341</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N10" t="n">
-        <v>110.8917770800879</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>133.8457040619253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.515661499833021</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>43.02452853204904</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.009440724870379662</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.01008888799258945</v>
+      </c>
+      <c r="E11">
         <v>3.649164209647731</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3.579539104715034</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>17.19605868707587</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.6291999209343007</v>
+      </c>
+      <c r="I11">
+        <v>17.7333093102701</v>
+      </c>
+      <c r="J11">
         <v>0.7235276512562689</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>3.643951631585124</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.6399586535935357</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>3.897861555331148</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N11" t="n">
-        <v>79.3865197393627</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>97.7496771336893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.103288843797519</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>35.97185506758893</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.01036177119919719</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.01107316974796402</v>
+      </c>
+      <c r="E12">
         <v>4.005180230101169</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3.154848024494607</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>15.15584833437195</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.4928732713985358</v>
+      </c>
+      <c r="I12">
+        <v>13.89109229304492</v>
+      </c>
+      <c r="J12">
         <v>0.6431356900055722</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>3.239068116964556</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.7999483169919194</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>4.872326944163936</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N12" t="n">
-        <v>70.63163132555341</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>85.01630828854563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.736107711711113</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>29.6920773252614</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.006907847466131459</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.00738211316530935</v>
+      </c>
+      <c r="E13">
         <v>2.670120153400779</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>2.548146481322567</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>12.2412621162235</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.3670332872116754</v>
+      </c>
+      <c r="I13">
+        <v>10.3444304309909</v>
+      </c>
+      <c r="J13">
         <v>0.3215678450027861</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>1.619534058482278</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.3733092145962288</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>2.27375257394317</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N13" t="n">
-        <v>53.82067032034698</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>64.53260830424874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.329383996169247</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>22.73601582606784</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.006217062719518314</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.006643901848778416</v>
+      </c>
+      <c r="E14">
         <v>2.403108138060701</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1.334743394978488</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>6.412089679926596</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.1677866455824802</v>
+      </c>
+      <c r="I14">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="J14">
         <v>0.4019598062534828</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>2.024417573102847</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.2666494389973064</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.624108981387979</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N14" t="n">
-        <v>39.04552138706955</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>43.94261735451999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.781436768286455</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>13.36465519520985</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.002763138986452584</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.002952845266123741</v>
+      </c>
+      <c r="E15">
         <v>1.068048061360312</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.7280418518064476</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3.497503461778142</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1048666534890501</v>
+      </c>
+      <c r="I15">
+        <v>2.955551551711684</v>
+      </c>
+      <c r="J15">
         <v>0.3215678450027861</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>1.619534058482278</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.3733092145962288</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>2.27375257394317</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N15" t="n">
-        <v>24.19955466592063</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>27.26016257740104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.6289153749582552</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>10.75613213301226</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.005296016390700785</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E16">
         <v>2.047092117607264</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.8493821604408558</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>4.080420705407833</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I16">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J16">
         <v>0.1768623147515324</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.8907437321652527</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.4266391023956901</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>2.598574370220766</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N16" t="n">
-        <v>22.62900052381892</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>23.54748958908185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3991917948836833</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.827245545504789</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.007138109048335841</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.007628183604152998</v>
+      </c>
+      <c r="E17">
         <v>2.759124158514138</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.4246910802204279</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2.040210352703916</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.01048666534890501</v>
+      </c>
+      <c r="I17">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="J17">
         <v>0.3698030217532042</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>1.862464167254619</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.4266391023956901</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>2.598574370220766</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>17.71508170249957</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>18.02161359757546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.2730321238591228</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.669578321217902</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.006217062719518314</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.006643901848778416</v>
+      </c>
+      <c r="E18">
         <v>2.403108138060701</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.4246910802204279</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>2.040210352703916</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.01048666534890501</v>
+      </c>
+      <c r="I18">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="J18">
         <v>0.1929407070016718</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.9717204350893665</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>3.573039759053552</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>15.14116674572025</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>15.44763540536959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.2824470246818511</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.830598263328861</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.005296016390700785</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E19">
         <v>2.047092117607264</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.6067015431720397</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>2.914586218148453</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.05243332674452506</v>
+      </c>
+      <c r="I19">
+        <v>1.477775775855842</v>
+      </c>
+      <c r="J19">
         <v>0.3376462372529255</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>1.700510761406392</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.4799689901951517</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>2.923396166498362</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>16.128243338682</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>17.65881604498507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.4839259022882383</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>8.276425024503448</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.003223662150861348</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.003444986143811031</v>
+      </c>
+      <c r="E20">
         <v>1.24605607158703</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.9100523147580599</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>4.371879327222679</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I20">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J20">
         <v>0.6752924745058509</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>3.401021522812784</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>3.573039759053552</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>23.52754482467657</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>24.44589161022975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.122256178069222</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>19.19357709962668</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.002763138986452584</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.002952845266123741</v>
+      </c>
+      <c r="E21">
         <v>1.068048061360312</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>2.12345540110214</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>10.20105176351958</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.3984932832583903</v>
+      </c>
+      <c r="I21">
+        <v>11.2310958965044</v>
+      </c>
+      <c r="J21">
         <v>1.157644242010031</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>5.830322610536201</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>1.546566746184377</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>9.419832092050274</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N21" t="n">
-        <v>51.83445982991379</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>63.46423871595623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.997841954582961</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>34.16843171594613</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.009210463288175279</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.009842817553745803</v>
+      </c>
+      <c r="E22">
         <v>3.560160204534373</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3.822219721983851</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>18.36189317433524</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>1.027693204192691</v>
+      </c>
+      <c r="I22">
+        <v>28.9644052067745</v>
+      </c>
+      <c r="J22">
         <v>1.929407070016717</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>9.717204350893667</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>2.399844950975758</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>14.61698083249181</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N22" t="n">
-        <v>91.42790692139127</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>121.420637686624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2.766097861717597</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>47.30765899220062</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.00460523164408764</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.004921408776872901</v>
+      </c>
+      <c r="E23">
         <v>1.780080102267187</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2.548146481322567</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>12.2412621162235</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.8599065586102109</v>
+      </c>
+      <c r="I23">
+        <v>24.23552272403581</v>
+      </c>
+      <c r="J23">
         <v>2.283131699519782</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>11.49869181522417</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>2.186525399777912</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>13.31769364738143</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>1.588888531860898</v>
       </c>
-      <c r="N23" t="n">
-        <v>97.62331831196403</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>122.7190637717428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3.236842902854015</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>55.35865609774874</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.005526277972905168</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.005905690532247481</v>
+      </c>
+      <c r="E24">
         <v>2.136096122720624</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3.154848024494607</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>15.15584833437195</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.3775199525605804</v>
+      </c>
+      <c r="I24">
+        <v>10.63998558616207</v>
+      </c>
+      <c r="J24">
         <v>2.427837229771036</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>12.2274821415412</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>3.039803604569294</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>18.51484238782296</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>1.271110825488718</v>
       </c>
-      <c r="N24" t="n">
-        <v>116.6093230956155</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>127.6272080468975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.613576468389394</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>44.69913593000307</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.01128281752801471</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.01205745150333861</v>
+      </c>
+      <c r="E25">
         <v>4.361196250554606</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4.125570493569872</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>19.81918628340948</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2831399644204353</v>
+      </c>
+      <c r="I25">
+        <v>7.979989189621548</v>
+      </c>
+      <c r="J25">
         <v>3.103129704276887</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>15.62850366435398</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>3.573102482563906</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>21.76306035059891</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N25" t="n">
-        <v>120.3735144311221</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>128.6374182191395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.675714813819405</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>45.76186754793542</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01243412543903663</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.01328780369755683</v>
+      </c>
+      <c r="E26">
         <v>4.806216276121401</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.943560030618259</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>18.94481041796494</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1677866455824802</v>
+      </c>
+      <c r="I26">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="J26">
         <v>4.051754847035106</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>20.4061291368767</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>3.679762258162828</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>22.4127039431541</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.588888531860898</v>
       </c>
-      <c r="N26" t="n">
-        <v>128.3843783618124</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>133.2819011683921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2.628640309705762</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>44.95676783738061</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01496700284328483</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.01599457852483693</v>
+      </c>
+      <c r="E27">
         <v>5.785260332368356</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.518868950397832</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>16.90460006526102</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1363266495357652</v>
+      </c>
+      <c r="I27">
+        <v>3.842217017225189</v>
+      </c>
+      <c r="J27">
         <v>3.360383980279116</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>16.9241309111398</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>3.413112819165521</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>20.78859496176613</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>1.429999678674808</v>
       </c>
-      <c r="N27" t="n">
-        <v>119.8158096385241</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>123.7953808809666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2.683246734477587</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>45.89068350162419</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.0115130791102191</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01230352194218225</v>
+      </c>
+      <c r="E28">
         <v>4.450200255667966</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>3.094177870177404</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>14.86438971255711</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1992466416291952</v>
+      </c>
+      <c r="I28">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="J28">
         <v>2.845875428274658</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>14.33287641756816</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>2.506504726574681</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>15.266624425047</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>2.065555091419167</v>
       </c>
-      <c r="N28" t="n">
-        <v>108.1423446051697</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>113.957929637883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2.839534088134878</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>48.56361454066617</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.01036177119919719</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.01107316974796402</v>
+      </c>
+      <c r="E29">
         <v>4.005180230101169</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>4.489591419473095</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>21.56793801429854</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.2621666337226253</v>
+      </c>
+      <c r="I29">
+        <v>7.388878879279211</v>
+      </c>
+      <c r="J29">
         <v>3.247835234528141</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>16.357293990671</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>2.453174838775219</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>14.9418026287694</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>2.065555091419167</v>
       </c>
-      <c r="N29" t="n">
-        <v>120.6725792107075</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>128.3243361222581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.493065737858474</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>42.63808067098275</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.009901248034788427</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.01058102887027674</v>
+      </c>
+      <c r="E30">
         <v>3.82717221987445</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>4.550261573790299</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>21.8593966361134</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1677866455824802</v>
+      </c>
+      <c r="I30">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="J30">
         <v>2.958424174025633</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>14.89971333803696</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>1.439906970585455</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>8.770188499495079</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.271110825488718</v>
       </c>
-      <c r="N30" t="n">
-        <v>104.7976510405454</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>109.6949999497021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2.931800116197615</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>50.1416099733536</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.007598632212744604</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.008120324481840285</v>
+      </c>
+      <c r="E31">
         <v>2.937132168740858</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>3.276188333129015</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>15.73876557800164</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1572999802335752</v>
+      </c>
+      <c r="I31">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="J31">
         <v>2.894110605025076</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>14.57580652634049</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>2.239855287577374</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>13.64251544365902</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.1508046492363865</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>2.383332797791347</v>
       </c>
-      <c r="N31" t="n">
-        <v>110.9195201112652</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>115.5106691113354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3.349821712726757</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>57.29089540308028</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.01013150961699281</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.01082709930912038</v>
+      </c>
+      <c r="E32">
         <v>3.916176224987809</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.943560030618259</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>18.94481041796494</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.3460599565138654</v>
+      </c>
+      <c r="I32">
+        <v>9.75332012064856</v>
+      </c>
+      <c r="J32">
         <v>2.79764025152424</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>14.08994630879581</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>1.813216185181683</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>11.04394107343825</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>1.429999678674808</v>
       </c>
-      <c r="N32" t="n">
-        <v>118.7206215861517</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>128.8206972530062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>3.673694301028611</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>62.82998141169737</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.007598632212744604</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.008120324481840285</v>
+      </c>
+      <c r="E33">
         <v>2.937132168740858</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.972837561542995</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>14.28147246892742</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.5872532595386808</v>
+      </c>
+      <c r="I33">
+        <v>16.55108868958543</v>
+      </c>
+      <c r="J33">
         <v>2.283131699519782</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>11.49869181522417</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>0.9066080925908417</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>5.521970536719127</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>1.112221972302628</v>
       </c>
-      <c r="N33" t="n">
-        <v>108.0957161634835</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>125.2345798048767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>3.833747615014996</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>65.56732042758375</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.005296016390700785</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E34">
         <v>2.047092117607264</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>3.397528641763423</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>16.32168282163133</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.7550399051211608</v>
+      </c>
+      <c r="I34">
+        <v>21.27997117232413</v>
+      </c>
+      <c r="J34">
         <v>1.543525656013374</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>7.773763480714932</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.4799689901951517</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>2.923396166498362</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N34" t="n">
-        <v>104.7380344157559</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>126.7734090969039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.688895674971223</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>45.98729546689074</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004835493226292021</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.005167479215716545</v>
+      </c>
+      <c r="E35">
         <v>1.869084107380546</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>2.790827098591384</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>13.40709660348288</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.5662799288408706</v>
+      </c>
+      <c r="I35">
+        <v>15.9599783792431</v>
+      </c>
+      <c r="J35">
         <v>0.9003899660078012</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>4.534695363750377</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.7999483169919194</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>4.872326944163936</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N35" t="n">
-        <v>78.70010751779967</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>95.22669781187305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2.380086927985734</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>40.70584136565122</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.003223662150861348</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.003444986143811031</v>
+      </c>
+      <c r="E36">
         <v>1.24605607158703</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.880774783833324</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>9.035217276260202</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.6082265902364908</v>
+      </c>
+      <c r="I36">
+        <v>17.14219899992776</v>
+      </c>
+      <c r="J36">
         <v>0.7074492590061296</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>3.562974928661011</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>4.547505147886341</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>1.112221972302628</v>
       </c>
-      <c r="N36" t="n">
-        <v>65.99834532749391</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>83.74899224165111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.903692946355677</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>32.55823229483652</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.003223662150861348</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.003444986143811031</v>
+      </c>
+      <c r="E37">
         <v>1.24605607158703</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>2.062785246784936</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>9.909593141704738</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.3355732911649604</v>
+      </c>
+      <c r="I37">
+        <v>9.45776496547739</v>
+      </c>
+      <c r="J37">
         <v>0.6270572977554331</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>3.158091414040441</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.4799689901951517</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>2.923396166498362</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N37" t="n">
-        <v>55.54786721778322</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>65.3414267984185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.464958568016536</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>25.05470299246569</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.005526277972905168</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.005905690532247481</v>
+      </c>
+      <c r="E38">
         <v>2.136096122720624</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1.213403086344079</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>5.829172436296905</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.1677866455824802</v>
+      </c>
+      <c r="I38">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="J38">
         <v>0.46627337525404</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>2.348324384799302</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.4799689901951517</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>2.923396166498362</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N38" t="n">
-        <v>42.25970739350063</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>47.15675593438115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.9151283599691981</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>15.65113837318552</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004374970061883258</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.004675338338029256</v>
+      </c>
+      <c r="E39">
         <v>1.691076097153827</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.8493821604408558</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>4.080420705407833</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.0734066574423351</v>
+      </c>
+      <c r="I39">
+        <v>2.068886086198179</v>
+      </c>
+      <c r="J39">
         <v>0.2411758837520897</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>1.214650543861708</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.3199793267967678</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>1.948930777665574</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N39" t="n">
-        <v>27.08519969476377</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>29.22779280668043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.6948196807173538</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>11.883271727789</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.009440724870379662</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.01008888799258945</v>
+      </c>
+      <c r="E40">
         <v>3.649164209647731</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.6673716974892442</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3.206044839963298</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.04194666139562005</v>
+      </c>
+      <c r="I40">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="J40">
         <v>0.2250974915019503</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.133673840937594</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>3.573039759053552</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N40" t="n">
-        <v>25.96643773070121</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>27.19125317590371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.4971067634400583</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>8.501852943458795</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.007138109048335841</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.007628183604152998</v>
+      </c>
+      <c r="E41">
         <v>2.759124158514138</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.4246910802204279</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2.040210352703916</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.01048666534890501</v>
+      </c>
+      <c r="I41">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="J41">
         <v>0.4019598062534828</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>2.024417573102847</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>3.573039759053552</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N41" t="n">
-        <v>20.98511180805814</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>21.29164370313403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.3671811320864065</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>6.279777742327521</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.004144708479678875</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.00442926789918561</v>
+      </c>
+      <c r="E42">
         <v>1.602072092040468</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.6673716974892442</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3.206044839963298</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.02097333069781003</v>
+      </c>
+      <c r="I42">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="J42">
         <v>0.2090190992518111</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>1.05269713801348</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.5332988779946127</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>3.248217962775958</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>17.16982529042248</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>17.78219349088213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.2880959651754884</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.927210228595441</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.003684185315270111</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.003937127021498321</v>
+      </c>
+      <c r="E43">
         <v>1.424064081813749</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.6673716974892442</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3.206044839963298</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.02097333069781003</v>
+      </c>
+      <c r="I43">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="J43">
         <v>0.2572542760022289</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>1.295627246785822</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>4.547505147886341</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N43" t="n">
-        <v>17.53241859468785</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>18.14475517743423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.4745110014655101</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>8.115405082392488</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.002993400568656965</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.003198915704967385</v>
+      </c>
+      <c r="E44">
         <v>1.157052066473671</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.7280418518064476</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3.497503461778142</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I44">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J44">
         <v>0.7074492590061296</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>3.562974928661011</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>4.547505147886341</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>23.54005462923085</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>24.45838560592739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.127905118562859</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>19.29018906489326</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.002532877404248202</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.002706774827280095</v>
+      </c>
+      <c r="E45">
         <v>0.9790440562469523</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.152732932026876</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>5.537713814482057</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.3355732911649604</v>
+      </c>
+      <c r="I45">
+        <v>9.45776496547739</v>
+      </c>
+      <c r="J45">
         <v>1.543525656013374</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>7.773763480714932</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>1.599896633983839</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>9.744653888327871</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N45" t="n">
-        <v>49.0898425155933</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>58.88335466965867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2.061863280177514</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>35.2633673223007</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.002532877404248202</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.002706774827280095</v>
+      </c>
+      <c r="E46">
         <v>0.9790440562469523</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.487476327005362</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>11.94980349440866</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>1.027693204192691</v>
+      </c>
+      <c r="I46">
+        <v>28.9644052067745</v>
+      </c>
+      <c r="J46">
         <v>1.961563854516996</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>9.879157756741892</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>3.146463380168216</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>19.16448598037814</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N46" t="n">
-        <v>87.57152831522274</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>117.563800623613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2.815055345995784</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>48.14496269117764</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.003914446897474493</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.004183197460341966</v>
+      </c>
+      <c r="E47">
         <v>1.513068086927108</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>3.154848024494607</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>15.15584833437195</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.8179598972145909</v>
+      </c>
+      <c r="I47">
+        <v>23.05330210335114</v>
+      </c>
+      <c r="J47">
         <v>2.041955815767693</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>10.28404127136246</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>2.559834614374143</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>15.59144622132459</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>1.112221972302628</v>
       </c>
-      <c r="N47" t="n">
-        <v>102.4475723279731</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>126.3191030791017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>3.106917271500365</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>53.13658089661747</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.005756539555109552</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.006151760971091127</v>
+      </c>
+      <c r="E48">
         <v>2.225100127833983</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>3.64020925903224</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>17.48751730889072</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.4194666139562005</v>
+      </c>
+      <c r="I48">
+        <v>11.82220620684673</v>
+      </c>
+      <c r="J48">
         <v>2.524307583271872</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>12.71334235908588</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>2.666494389973064</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>16.24108981387978</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>1.429999678674808</v>
       </c>
-      <c r="N48" t="n">
-        <v>115.2677980178571</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>127.509866060076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2.613576468389394</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>44.69913593000307</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.01128281752801471</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.01205745150333861</v>
+      </c>
+      <c r="E49">
         <v>4.361196250554606</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>4.125570493569872</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>19.81918628340948</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.2831399644204353</v>
+      </c>
+      <c r="I49">
+        <v>7.979989189621548</v>
+      </c>
+      <c r="J49">
         <v>3.103129704276887</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>15.62850366435398</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>3.573102482563906</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>21.76306035059891</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N49" t="n">
-        <v>120.3735144311221</v>
+      <c r="P49">
+        <v>128.6374182191395</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.602278587402124</v>
+        <v>3.772172526260294</v>
       </c>
       <c r="C2">
-        <v>44.50591199946992</v>
+        <v>64.51422200270986</v>
       </c>
       <c r="D2">
-        <v>0.01599457852483693</v>
+        <v>0.02318518469643753</v>
       </c>
       <c r="E2">
-        <v>5.785260332368356</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="F2">
-        <v>4.368251110838685</v>
+        <v>6.332064871102689</v>
       </c>
       <c r="G2">
-        <v>20.98502077066886</v>
+        <v>30.41915619539564</v>
       </c>
       <c r="H2">
-        <v>0.1677866455824802</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I2">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J2">
-        <v>3.794500571032878</v>
+        <v>5.500376045140702</v>
       </c>
       <c r="K2">
-        <v>19.11050189009087</v>
+        <v>27.70191882676652</v>
       </c>
       <c r="L2">
-        <v>3.093133492368753</v>
+        <v>4.483698723285839</v>
       </c>
       <c r="M2">
-        <v>18.83966418410055</v>
+        <v>27.30932190860489</v>
       </c>
       <c r="N2">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O2">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P2">
-        <v>129.3487266169351</v>
+        <v>187.4994150177659</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.705842496452134</v>
+        <v>3.922295166596268</v>
       </c>
       <c r="C3">
-        <v>46.2771313626905</v>
+        <v>67.08171998400439</v>
       </c>
       <c r="D3">
-        <v>0.01402601501408777</v>
+        <v>0.02033162350302984</v>
       </c>
       <c r="E3">
-        <v>5.073228291461482</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="F3">
-        <v>4.004230184935462</v>
+        <v>5.804392798510797</v>
       </c>
       <c r="G3">
-        <v>19.23626903977978</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="H3">
-        <v>0.1677866455824802</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I3">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J3">
-        <v>2.974502566275772</v>
+        <v>4.311735459114533</v>
       </c>
       <c r="K3">
-        <v>14.98069004096107</v>
+        <v>21.71548721589748</v>
       </c>
       <c r="L3">
-        <v>2.666494389973064</v>
+        <v>3.865257520073997</v>
       </c>
       <c r="M3">
-        <v>16.24108981387978</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="N3">
-        <v>0.1105900761066834</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O3">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P3">
-        <v>120.928540790898</v>
+        <v>175.2938065203712</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.852714949286697</v>
+        <v>4.135196365618194</v>
       </c>
       <c r="C4">
-        <v>48.78904245962152</v>
+        <v>70.72289893929482</v>
       </c>
       <c r="D4">
-        <v>0.01501029676946235</v>
+        <v>0.02175840409973369</v>
       </c>
       <c r="E4">
-        <v>5.429244311914917</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="F4">
-        <v>3.943560030618259</v>
+        <v>5.716447453078818</v>
       </c>
       <c r="G4">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H4">
-        <v>0.1572999802335752</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I4">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J4">
-        <v>3.360383980279116</v>
+        <v>4.871095734891553</v>
       </c>
       <c r="K4">
-        <v>16.9241309111398</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="L4">
-        <v>2.399844950975758</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M4">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N4">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O4">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P4">
-        <v>123.5557754135485</v>
+        <v>179.1021544472916</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.837651107970332</v>
+        <v>4.11336034520569</v>
       </c>
       <c r="C5">
-        <v>48.53141055224395</v>
+        <v>70.34944468747018</v>
       </c>
       <c r="D5">
-        <v>0.01107316974796402</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E5">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F5">
-        <v>3.64020925903224</v>
+        <v>5.276720725918906</v>
       </c>
       <c r="G5">
-        <v>17.48751730889072</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="H5">
-        <v>0.1572999802335752</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I5">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J5">
-        <v>3.392540764779394</v>
+        <v>4.917709091206306</v>
       </c>
       <c r="K5">
-        <v>17.08608431698803</v>
+        <v>24.76739352732091</v>
       </c>
       <c r="L5">
-        <v>1.813216185181683</v>
+        <v>2.628375113650319</v>
       </c>
       <c r="M5">
-        <v>11.04394107343825</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="N5">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O5">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P5">
-        <v>115.7909912479229</v>
+        <v>167.8465934002501</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.933683096362161</v>
+        <v>4.252564975335415</v>
       </c>
       <c r="C6">
-        <v>50.1738139617758</v>
+        <v>72.73021554285235</v>
       </c>
       <c r="D6">
-        <v>0.01328780369755683</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E6">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F6">
-        <v>4.307580956521482</v>
+        <v>6.244119525670707</v>
       </c>
       <c r="G6">
-        <v>20.693562148854</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="H6">
-        <v>0.1992466416291952</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I6">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J6">
-        <v>2.910188997275215</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K6">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L6">
-        <v>1.919875960780607</v>
+        <v>2.78298541445328</v>
       </c>
       <c r="M6">
-        <v>11.69358466599345</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="N6">
-        <v>0.06032185969455459</v>
+        <v>0.08744046966158478</v>
       </c>
       <c r="O6">
-        <v>0.9533331191165386</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="P6">
-        <v>120.9370266653388</v>
+        <v>175.3061073487997</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.993938461627624</v>
+        <v>4.339909056985435</v>
       </c>
       <c r="C7">
-        <v>51.20434159128589</v>
+        <v>74.22403255015102</v>
       </c>
       <c r="D7">
-        <v>0.01156531062565131</v>
+        <v>0.01676467201127022</v>
       </c>
       <c r="E7">
-        <v>4.183188240327887</v>
+        <v>6.063804170979642</v>
       </c>
       <c r="F7">
-        <v>4.489591419473095</v>
+        <v>6.507955561966651</v>
       </c>
       <c r="G7">
-        <v>21.56793801429854</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="H7">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I7">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J7">
-        <v>2.556464367772151</v>
+        <v>3.705761827022761</v>
       </c>
       <c r="K7">
-        <v>12.87529576493411</v>
+        <v>18.66358090447405</v>
       </c>
       <c r="L7">
-        <v>1.546566746184377</v>
+        <v>2.241849361642919</v>
       </c>
       <c r="M7">
-        <v>9.419832092050274</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="N7">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O7">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P7">
-        <v>118.5537272320316</v>
+        <v>171.8513593876494</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.280151446638568</v>
+        <v>4.754793444823033</v>
       </c>
       <c r="C8">
-        <v>56.09934783145919</v>
+        <v>81.31966333481951</v>
       </c>
       <c r="D8">
-        <v>0.01279566281986954</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E8">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F8">
-        <v>4.24691080220428</v>
+        <v>6.156174180238724</v>
       </c>
       <c r="G8">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H8">
-        <v>0.3565466218627704</v>
+        <v>0.5168375814306421</v>
       </c>
       <c r="I8">
-        <v>10.04887527581972</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="J8">
-        <v>2.781561859274102</v>
+        <v>4.032055321226022</v>
       </c>
       <c r="K8">
-        <v>14.0089696058717</v>
+        <v>20.30691507216359</v>
       </c>
       <c r="L8">
-        <v>1.013267868189764</v>
+        <v>1.468797857628119</v>
       </c>
       <c r="M8">
-        <v>6.171614129274317</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="N8">
-        <v>0.1105900761066834</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O8">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P8">
-        <v>124.9087203575018</v>
+        <v>181.0633363790917</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.619087876256788</v>
+        <v>5.246103904104407</v>
       </c>
       <c r="C9">
-        <v>61.89606574745383</v>
+        <v>89.72238400087438</v>
       </c>
       <c r="D9">
-        <v>0.01082709930912038</v>
+        <v>0.01569458656374233</v>
       </c>
       <c r="E9">
-        <v>3.916176224987809</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="F9">
-        <v>4.064900339252667</v>
+        <v>5.892338143942778</v>
       </c>
       <c r="G9">
-        <v>19.52772766159463</v>
+        <v>28.30671479293761</v>
       </c>
       <c r="H9">
-        <v>0.6501732516321108</v>
+        <v>0.9424685308441119</v>
       </c>
       <c r="I9">
-        <v>18.32441962061244</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="J9">
-        <v>2.604699544522568</v>
+        <v>3.775681861494887</v>
       </c>
       <c r="K9">
-        <v>13.11822587370645</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="L9">
-        <v>1.013267868189764</v>
+        <v>1.468797857628119</v>
       </c>
       <c r="M9">
-        <v>6.171614129274317</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="N9">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O9">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P9">
-        <v>136.0997827120721</v>
+        <v>197.2855111139341</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.477864363915861</v>
+        <v>5.041391212737167</v>
       </c>
       <c r="C10">
-        <v>59.48076661578937</v>
+        <v>86.2212503900182</v>
       </c>
       <c r="D10">
-        <v>0.01230352194218225</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E10">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F10">
-        <v>5.035622808327931</v>
+        <v>7.299463670854489</v>
       </c>
       <c r="G10">
-        <v>24.19106561063216</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="H10">
-        <v>0.786499901167876</v>
+        <v>1.140082900214652</v>
       </c>
       <c r="I10">
-        <v>22.16663663783763</v>
+        <v>32.13198545676116</v>
       </c>
       <c r="J10">
-        <v>1.39882012576212</v>
+        <v>2.0276809996917</v>
       </c>
       <c r="K10">
-        <v>7.044973154397907</v>
+        <v>10.21214804207071</v>
       </c>
       <c r="L10">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M10">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N10">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O10">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P10">
-        <v>133.8457040619253</v>
+        <v>194.018077105417</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.515661499833021</v>
+        <v>3.646615408888389</v>
       </c>
       <c r="C11">
-        <v>43.02452853204904</v>
+        <v>62.36686005471806</v>
       </c>
       <c r="D11">
-        <v>0.01008888799258945</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E11">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F11">
-        <v>3.579539104715034</v>
+        <v>5.188775380486924</v>
       </c>
       <c r="G11">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H11">
-        <v>0.6291999209343007</v>
+        <v>0.9120663201717211</v>
       </c>
       <c r="I11">
-        <v>17.7333093102701</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="J11">
-        <v>0.7235276512562689</v>
+        <v>1.048800517081914</v>
       </c>
       <c r="K11">
-        <v>3.643951631585124</v>
+        <v>5.28214553900209</v>
       </c>
       <c r="L11">
-        <v>0.6399586535935357</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M11">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N11">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O11">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P11">
-        <v>97.7496771336893</v>
+        <v>141.6945319842262</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.103288843797519</v>
+        <v>3.048854350096058</v>
       </c>
       <c r="C12">
-        <v>35.97185506758893</v>
+        <v>52.14354991101806</v>
       </c>
       <c r="D12">
-        <v>0.01107316974796402</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E12">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F12">
-        <v>3.154848024494607</v>
+        <v>4.573157962463056</v>
       </c>
       <c r="G12">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H12">
-        <v>0.4928732713985358</v>
+        <v>0.7144519508011817</v>
       </c>
       <c r="I12">
-        <v>13.89109229304492</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="J12">
-        <v>0.6431356900055722</v>
+        <v>0.9322671262950343</v>
       </c>
       <c r="K12">
-        <v>3.239068116964556</v>
+        <v>4.695240479112969</v>
       </c>
       <c r="L12">
-        <v>0.7999483169919194</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M12">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="N12">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O12">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P12">
-        <v>85.01630828854563</v>
+        <v>123.2366834060918</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.736107711711113</v>
+        <v>2.516601352541239</v>
       </c>
       <c r="C13">
-        <v>29.6920773252614</v>
+        <v>43.04060252279198</v>
       </c>
       <c r="D13">
-        <v>0.00738211316530935</v>
+        <v>0.01070085447527886</v>
       </c>
       <c r="E13">
-        <v>2.670120153400779</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="F13">
-        <v>2.548146481322567</v>
+        <v>3.693704508143234</v>
       </c>
       <c r="G13">
-        <v>12.2412621162235</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="H13">
-        <v>0.3670332872116754</v>
+        <v>0.5320386867668376</v>
       </c>
       <c r="I13">
-        <v>10.3444304309909</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="J13">
-        <v>0.3215678450027861</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K13">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L13">
-        <v>0.3733092145962288</v>
+        <v>0.5411360528103599</v>
       </c>
       <c r="M13">
-        <v>2.27375257394317</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="N13">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O13">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P13">
-        <v>64.53260830424874</v>
+        <v>93.54422438537621</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.329383996169247</v>
+        <v>1.927028801403594</v>
       </c>
       <c r="C14">
-        <v>22.73601582606784</v>
+        <v>32.95733772352619</v>
       </c>
       <c r="D14">
-        <v>0.006643901848778416</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E14">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F14">
-        <v>1.334743394978488</v>
+        <v>1.934797599503599</v>
       </c>
       <c r="G14">
-        <v>6.412089679926596</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="H14">
-        <v>0.1677866455824802</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I14">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J14">
-        <v>0.4019598062534828</v>
+        <v>0.5826669539343965</v>
       </c>
       <c r="K14">
-        <v>2.024417573102847</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="L14">
-        <v>0.2666494389973064</v>
+        <v>0.3865257520073999</v>
       </c>
       <c r="M14">
-        <v>1.624108981387979</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="N14">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O14">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P14">
-        <v>43.94261735451999</v>
+        <v>63.69768967824768</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.781436768286455</v>
+        <v>1.132743558898713</v>
       </c>
       <c r="C15">
-        <v>13.36465519520985</v>
+        <v>19.37293931340419</v>
       </c>
       <c r="D15">
-        <v>0.002952845266123741</v>
+        <v>0.004280341790111544</v>
       </c>
       <c r="E15">
-        <v>1.068048061360312</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="F15">
-        <v>0.7280418518064476</v>
+        <v>1.055344145183782</v>
       </c>
       <c r="G15">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H15">
-        <v>0.1048666534890501</v>
+        <v>0.1520110533619535</v>
       </c>
       <c r="I15">
-        <v>2.955551551711684</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="J15">
-        <v>0.3215678450027861</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K15">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L15">
-        <v>0.3733092145962288</v>
+        <v>0.5411360528103599</v>
       </c>
       <c r="M15">
-        <v>2.27375257394317</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="N15">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O15">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P15">
-        <v>27.26016257740104</v>
+        <v>39.51538349263265</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.6289153749582552</v>
+        <v>0.9116538522220973</v>
       </c>
       <c r="C16">
-        <v>10.75613213301226</v>
+        <v>15.59171501367952</v>
       </c>
       <c r="D16">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E16">
-        <v>2.047092117607264</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="F16">
-        <v>0.8493821604408558</v>
+        <v>1.231234836047745</v>
       </c>
       <c r="G16">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H16">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I16">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J16">
-        <v>0.1768623147515324</v>
+        <v>0.2563734597311345</v>
       </c>
       <c r="K16">
-        <v>0.8907437321652527</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="L16">
-        <v>0.4266391023956901</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M16">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="N16">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O16">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P16">
-        <v>23.54748958908185</v>
+        <v>34.13362186521691</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3991917948836833</v>
+        <v>0.578654540931391</v>
       </c>
       <c r="C17">
-        <v>6.827245545504789</v>
+        <v>9.896537673353473</v>
       </c>
       <c r="D17">
-        <v>0.007628183604152998</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E17">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F17">
-        <v>0.4246910802204279</v>
+        <v>0.6156174180238727</v>
       </c>
       <c r="G17">
-        <v>2.040210352703916</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="H17">
-        <v>0.01048666534890501</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I17">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J17">
-        <v>0.3698030217532042</v>
+        <v>0.5360535976196447</v>
       </c>
       <c r="K17">
-        <v>1.862464167254619</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="L17">
-        <v>0.4266391023956901</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M17">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="P17">
-        <v>18.02161359757546</v>
+        <v>26.12350423231157</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,43 +1274,43 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2730321238591228</v>
+        <v>0.3957778699766589</v>
       </c>
       <c r="C18">
-        <v>4.669578321217902</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="D18">
-        <v>0.006643901848778416</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E18">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F18">
-        <v>0.4246910802204279</v>
+        <v>0.6156174180238727</v>
       </c>
       <c r="G18">
-        <v>2.040210352703916</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="H18">
-        <v>0.01048666534890501</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I18">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J18">
-        <v>0.1929407070016718</v>
+        <v>0.2796801378885103</v>
       </c>
       <c r="K18">
-        <v>0.9717204350893665</v>
+        <v>1.408572143733891</v>
       </c>
       <c r="L18">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M18">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P18">
-        <v>15.44763540536959</v>
+        <v>22.39235497456617</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,43 +1318,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2824470246818511</v>
+        <v>0.4094253827344747</v>
       </c>
       <c r="C19">
-        <v>4.830598263328861</v>
+        <v>7.002267221712358</v>
       </c>
       <c r="D19">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E19">
-        <v>2.047092117607264</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="F19">
-        <v>0.6067015431720397</v>
+        <v>0.8794534543198177</v>
       </c>
       <c r="G19">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H19">
-        <v>0.05243332674452506</v>
+        <v>0.07600552668097676</v>
       </c>
       <c r="I19">
-        <v>1.477775775855842</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="J19">
-        <v>0.3376462372529255</v>
+        <v>0.4894402413048929</v>
       </c>
       <c r="K19">
-        <v>1.700510761406392</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="L19">
-        <v>0.4799689901951517</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M19">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="P19">
-        <v>17.65881604498507</v>
+        <v>25.59760551912184</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1362,43 +1362,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4839259022882383</v>
+        <v>0.7014821557517338</v>
       </c>
       <c r="C20">
-        <v>8.276425024503448</v>
+        <v>11.99721783986717</v>
       </c>
       <c r="D20">
-        <v>0.003444986143811031</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E20">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F20">
-        <v>0.9100523147580599</v>
+        <v>1.319180181479726</v>
       </c>
       <c r="G20">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H20">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I20">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J20">
-        <v>0.6752924745058509</v>
+        <v>0.9788804826097858</v>
       </c>
       <c r="K20">
-        <v>3.401021522812784</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="L20">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M20">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P20">
-        <v>24.44589161022975</v>
+        <v>35.43591418630695</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.122256178069222</v>
+        <v>1.626783520731645</v>
       </c>
       <c r="C21">
-        <v>19.19357709962668</v>
+        <v>27.82234176093712</v>
       </c>
       <c r="D21">
-        <v>0.002952845266123741</v>
+        <v>0.004280341790111544</v>
       </c>
       <c r="E21">
-        <v>1.068048061360312</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="F21">
-        <v>2.12345540110214</v>
+        <v>3.078087090119362</v>
       </c>
       <c r="G21">
-        <v>10.20105176351958</v>
+        <v>14.78708981720621</v>
       </c>
       <c r="H21">
-        <v>0.3984932832583903</v>
+        <v>0.5776420027754234</v>
       </c>
       <c r="I21">
-        <v>11.2310958965044</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="J21">
-        <v>1.157644242010031</v>
+        <v>1.678080827331061</v>
       </c>
       <c r="K21">
-        <v>5.830322610536201</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="L21">
-        <v>1.546566746184377</v>
+        <v>2.241849361642919</v>
       </c>
       <c r="M21">
-        <v>9.419832092050274</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="N21">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O21">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P21">
-        <v>63.46423871595623</v>
+        <v>91.99555299086877</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.997841954582961</v>
+        <v>2.896002207208519</v>
       </c>
       <c r="C22">
-        <v>34.16843171594613</v>
+        <v>49.52937014824542</v>
       </c>
       <c r="D22">
-        <v>0.009842817553745803</v>
+        <v>0.01426780596703848</v>
       </c>
       <c r="E22">
-        <v>3.560160204534373</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="F22">
-        <v>3.822219721983851</v>
+        <v>5.540556762214854</v>
       </c>
       <c r="G22">
-        <v>18.36189317433524</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="H22">
-        <v>1.027693204192691</v>
+        <v>1.489708322947145</v>
       </c>
       <c r="I22">
-        <v>28.9644052067745</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="J22">
-        <v>1.929407070016717</v>
+        <v>2.796801378885101</v>
       </c>
       <c r="K22">
-        <v>9.717204350893667</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="L22">
-        <v>2.399844950975758</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M22">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N22">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O22">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P22">
-        <v>121.420637686624</v>
+        <v>176.007133064002</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.766097861717597</v>
+        <v>4.00963924824629</v>
       </c>
       <c r="C23">
-        <v>47.30765899220062</v>
+        <v>68.57553699130304</v>
       </c>
       <c r="D23">
-        <v>0.004921408776872901</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E23">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F23">
-        <v>2.548146481322567</v>
+        <v>3.693704508143234</v>
       </c>
       <c r="G23">
-        <v>12.2412621162235</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="H23">
-        <v>0.8599065586102109</v>
+        <v>1.246490637568019</v>
       </c>
       <c r="I23">
-        <v>24.23552272403581</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="J23">
-        <v>2.283131699519782</v>
+        <v>3.309548298347372</v>
       </c>
       <c r="K23">
-        <v>11.49869181522417</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="L23">
-        <v>2.186525399777912</v>
+        <v>3.169511166460679</v>
       </c>
       <c r="M23">
-        <v>13.31769364738143</v>
+        <v>19.30486548711725</v>
       </c>
       <c r="N23">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O23">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P23">
-        <v>122.7190637717428</v>
+        <v>177.8892863543438</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.236842902854015</v>
+        <v>4.692014886137081</v>
       </c>
       <c r="C24">
-        <v>55.35865609774874</v>
+        <v>80.2459823608236</v>
       </c>
       <c r="D24">
-        <v>0.005905690532247481</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E24">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F24">
-        <v>3.154848024494607</v>
+        <v>4.573157962463056</v>
       </c>
       <c r="G24">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H24">
-        <v>0.3775199525605804</v>
+        <v>0.547239792103033</v>
       </c>
       <c r="I24">
-        <v>10.63998558616207</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="J24">
-        <v>2.427837229771036</v>
+        <v>3.519308401763753</v>
       </c>
       <c r="K24">
-        <v>12.2274821415412</v>
+        <v>17.72453280865146</v>
       </c>
       <c r="L24">
-        <v>3.039803604569294</v>
+        <v>4.406393572884359</v>
       </c>
       <c r="M24">
-        <v>18.51484238782296</v>
+        <v>26.83847153087032</v>
       </c>
       <c r="N24">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O24">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P24">
-        <v>127.6272080468975</v>
+        <v>185.0039615775461</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.613576468389394</v>
+        <v>3.788549541569673</v>
       </c>
       <c r="C25">
-        <v>44.69913593000307</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="D25">
-        <v>0.01205745150333861</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E25">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F25">
-        <v>4.125570493569872</v>
+        <v>5.980283489374761</v>
       </c>
       <c r="G25">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H25">
-        <v>0.2831399644204353</v>
+        <v>0.4104298440772746</v>
       </c>
       <c r="I25">
-        <v>7.979989189621548</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="J25">
-        <v>3.103129704276887</v>
+        <v>4.49818888437354</v>
       </c>
       <c r="K25">
-        <v>15.62850366435398</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="L25">
-        <v>3.573102482563906</v>
+        <v>5.179445076899157</v>
       </c>
       <c r="M25">
-        <v>21.76306035059891</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="N25">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O25">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P25">
-        <v>128.6374182191395</v>
+        <v>186.4683271054831</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.675714813819405</v>
+        <v>3.878623125771257</v>
       </c>
       <c r="C26">
-        <v>45.76186754793542</v>
+        <v>66.3348114803551</v>
       </c>
       <c r="D26">
-        <v>0.01328780369755683</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E26">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F26">
-        <v>3.943560030618259</v>
+        <v>5.716447453078818</v>
       </c>
       <c r="G26">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H26">
-        <v>0.1677866455824802</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I26">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J26">
-        <v>4.051754847035106</v>
+        <v>5.873282895658713</v>
       </c>
       <c r="K26">
-        <v>20.4061291368767</v>
+        <v>29.5800150184117</v>
       </c>
       <c r="L26">
-        <v>3.679762258162828</v>
+        <v>5.334055377702118</v>
       </c>
       <c r="M26">
-        <v>22.4127039431541</v>
+        <v>32.48867606368512</v>
       </c>
       <c r="N26">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O26">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P26">
-        <v>133.2819011683921</v>
+        <v>193.2008080414866</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.628640309705762</v>
+        <v>3.810385561982179</v>
       </c>
       <c r="C27">
-        <v>44.95676783738061</v>
+        <v>65.16776694340304</v>
       </c>
       <c r="D27">
-        <v>0.01599457852483693</v>
+        <v>0.02318518469643753</v>
       </c>
       <c r="E27">
-        <v>5.785260332368356</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="F27">
-        <v>3.518868950397832</v>
+        <v>5.100830035054941</v>
       </c>
       <c r="G27">
-        <v>16.90460006526102</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="H27">
-        <v>0.1363266495357652</v>
+        <v>0.1976143693705396</v>
       </c>
       <c r="I27">
-        <v>3.842217017225189</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="J27">
-        <v>3.360383980279116</v>
+        <v>4.871095734891553</v>
       </c>
       <c r="K27">
-        <v>16.9241309111398</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="L27">
-        <v>3.413112819165521</v>
+        <v>4.947529625694722</v>
       </c>
       <c r="M27">
-        <v>20.78859496176613</v>
+        <v>30.13442417501229</v>
       </c>
       <c r="N27">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O27">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P27">
-        <v>123.7953808809666</v>
+        <v>179.4494781987577</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.683246734477587</v>
+        <v>3.88954113597751</v>
       </c>
       <c r="C28">
-        <v>45.89068350162419</v>
+        <v>66.52153860626744</v>
       </c>
       <c r="D28">
-        <v>0.01230352194218225</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E28">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F28">
-        <v>3.094177870177404</v>
+        <v>4.485212617031072</v>
       </c>
       <c r="G28">
-        <v>14.86438971255711</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="H28">
-        <v>0.1992466416291952</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I28">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J28">
-        <v>2.845875428274658</v>
+        <v>4.125282033855526</v>
       </c>
       <c r="K28">
-        <v>14.33287641756816</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="L28">
-        <v>2.506504726574681</v>
+        <v>3.633342068869561</v>
       </c>
       <c r="M28">
-        <v>15.266624425047</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="N28">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O28">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P28">
-        <v>113.957929637883</v>
+        <v>165.1894510490009</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.839534088134878</v>
+        <v>4.116089847757252</v>
       </c>
       <c r="C29">
-        <v>48.56361454066617</v>
+        <v>70.39612646894827</v>
       </c>
       <c r="D29">
-        <v>0.01107316974796402</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E29">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F29">
-        <v>4.489591419473095</v>
+        <v>6.507955561966651</v>
       </c>
       <c r="G29">
-        <v>21.56793801429854</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="H29">
-        <v>0.2621666337226253</v>
+        <v>0.3800276334048839</v>
       </c>
       <c r="I29">
-        <v>7.388878879279211</v>
+        <v>10.71066181892039</v>
       </c>
       <c r="J29">
-        <v>3.247835234528141</v>
+        <v>4.707948987789922</v>
       </c>
       <c r="K29">
-        <v>16.357293990671</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="L29">
-        <v>2.453174838775219</v>
+        <v>3.556036918468079</v>
       </c>
       <c r="M29">
-        <v>14.9418026287694</v>
+        <v>21.65911737579007</v>
       </c>
       <c r="N29">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O29">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P29">
-        <v>128.3243361222581</v>
+        <v>186.0144941876559</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.493065737858474</v>
+        <v>3.613861378269632</v>
       </c>
       <c r="C30">
-        <v>42.63808067098275</v>
+        <v>61.80667867698107</v>
       </c>
       <c r="D30">
-        <v>0.01058102887027674</v>
+        <v>0.01533789141456637</v>
       </c>
       <c r="E30">
-        <v>3.82717221987445</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="F30">
-        <v>4.550261573790299</v>
+        <v>6.595900907398633</v>
       </c>
       <c r="G30">
-        <v>21.8593966361134</v>
+        <v>31.68662103687046</v>
       </c>
       <c r="H30">
-        <v>0.1677866455824802</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I30">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J30">
-        <v>2.958424174025633</v>
+        <v>4.288428780957157</v>
       </c>
       <c r="K30">
-        <v>14.89971333803696</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="L30">
-        <v>1.439906970585455</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M30">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N30">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O30">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P30">
-        <v>109.6949999497021</v>
+        <v>159.010056448829</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.931800116197615</v>
+        <v>4.249835472783849</v>
       </c>
       <c r="C31">
-        <v>50.1416099733536</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="D31">
-        <v>0.008120324481840285</v>
+        <v>0.01177093992280675</v>
       </c>
       <c r="E31">
-        <v>2.937132168740858</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="F31">
-        <v>3.276188333129015</v>
+        <v>4.749048653327015</v>
       </c>
       <c r="G31">
-        <v>15.73876557800164</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="H31">
-        <v>0.1572999802335752</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I31">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J31">
-        <v>2.894110605025076</v>
+        <v>4.195202068327655</v>
       </c>
       <c r="K31">
-        <v>14.57580652634049</v>
+        <v>21.12858215600836</v>
       </c>
       <c r="L31">
-        <v>2.239855287577374</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M31">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N31">
-        <v>0.1508046492363865</v>
+        <v>0.218601174153962</v>
       </c>
       <c r="O31">
-        <v>2.383332797791347</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="P31">
-        <v>115.5106691113354</v>
+        <v>167.4402481813879</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.349821712726757</v>
+        <v>4.85578503923087</v>
       </c>
       <c r="C32">
-        <v>57.29089540308028</v>
+        <v>83.04688924950857</v>
       </c>
       <c r="D32">
-        <v>0.01082709930912038</v>
+        <v>0.01569458656374233</v>
       </c>
       <c r="E32">
-        <v>3.916176224987809</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="F32">
-        <v>3.943560030618259</v>
+        <v>5.716447453078818</v>
       </c>
       <c r="G32">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H32">
-        <v>0.3460599565138654</v>
+        <v>0.5016364760944468</v>
       </c>
       <c r="I32">
-        <v>9.75332012064856</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="J32">
-        <v>2.79764025152424</v>
+        <v>4.0553619993834</v>
       </c>
       <c r="K32">
-        <v>14.08994630879581</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="L32">
-        <v>1.813216185181683</v>
+        <v>2.628375113650319</v>
       </c>
       <c r="M32">
-        <v>11.04394107343825</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="N32">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O32">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P32">
-        <v>128.8206972530062</v>
+        <v>186.7340020180534</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.673694301028611</v>
+        <v>5.325259478099738</v>
       </c>
       <c r="C33">
-        <v>62.82998141169737</v>
+        <v>91.07615566373877</v>
       </c>
       <c r="D33">
-        <v>0.008120324481840285</v>
+        <v>0.01177093992280675</v>
       </c>
       <c r="E33">
-        <v>2.937132168740858</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="F33">
-        <v>2.972837561542995</v>
+        <v>4.309321926167107</v>
       </c>
       <c r="G33">
-        <v>14.28147246892742</v>
+        <v>20.7019257440887</v>
       </c>
       <c r="H33">
-        <v>0.5872532595386808</v>
+        <v>0.85126189882694</v>
       </c>
       <c r="I33">
-        <v>16.55108868958543</v>
+        <v>23.99188247438166</v>
       </c>
       <c r="J33">
-        <v>2.283131699519782</v>
+        <v>3.309548298347372</v>
       </c>
       <c r="K33">
-        <v>11.49869181522417</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="L33">
-        <v>0.9066080925908417</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M33">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N33">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O33">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P33">
-        <v>125.2345798048767</v>
+        <v>181.5356908997649</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,49 +2056,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.833747615014996</v>
+        <v>5.557267194982606</v>
       </c>
       <c r="C34">
-        <v>65.56732042758375</v>
+        <v>95.04410708937579</v>
       </c>
       <c r="D34">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E34">
-        <v>2.047092117607264</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="F34">
-        <v>3.397528641763423</v>
+        <v>4.924939344190982</v>
       </c>
       <c r="G34">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H34">
-        <v>0.7550399051211608</v>
+        <v>1.094479584206066</v>
       </c>
       <c r="I34">
-        <v>21.27997117232413</v>
+        <v>30.84670603849071</v>
       </c>
       <c r="J34">
-        <v>1.543525656013374</v>
+        <v>2.237441103108082</v>
       </c>
       <c r="K34">
-        <v>7.773763480714932</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="L34">
-        <v>0.4799689901951517</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M34">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N34">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O34">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P34">
-        <v>126.7734090969039</v>
+        <v>183.7663243169902</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2106,49 +2106,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.688895674971223</v>
+        <v>3.8977296436322</v>
       </c>
       <c r="C35">
-        <v>45.98729546689074</v>
+        <v>66.66158395070165</v>
       </c>
       <c r="D35">
-        <v>0.005167479215716545</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E35">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F35">
-        <v>2.790827098591384</v>
+        <v>4.045485889871162</v>
       </c>
       <c r="G35">
-        <v>13.40709660348288</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="H35">
-        <v>0.5662799288408706</v>
+        <v>0.8208596881545491</v>
       </c>
       <c r="I35">
-        <v>15.9599783792431</v>
+        <v>23.13502952886803</v>
       </c>
       <c r="J35">
-        <v>0.9003899660078012</v>
+        <v>1.305173976813047</v>
       </c>
       <c r="K35">
-        <v>4.534695363750377</v>
+        <v>6.573336670758156</v>
       </c>
       <c r="L35">
-        <v>0.7999483169919194</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M35">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="N35">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O35">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P35">
-        <v>95.22669781187305</v>
+        <v>138.0373089151239</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2156,49 +2156,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.380086927985734</v>
+        <v>3.450091225175841</v>
       </c>
       <c r="C36">
-        <v>40.70584136565122</v>
+        <v>59.00577178829615</v>
       </c>
       <c r="D36">
-        <v>0.003444986143811031</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E36">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F36">
-        <v>1.880774783833324</v>
+        <v>2.726305708391434</v>
       </c>
       <c r="G36">
-        <v>9.035217276260202</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="H36">
-        <v>0.6082265902364908</v>
+        <v>0.8816641094993306</v>
       </c>
       <c r="I36">
-        <v>17.14219899992776</v>
+        <v>24.84873541989531</v>
       </c>
       <c r="J36">
-        <v>0.7074492590061296</v>
+        <v>1.025493838924538</v>
       </c>
       <c r="K36">
-        <v>3.562974928661011</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="L36">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M36">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N36">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O36">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P36">
-        <v>83.74899224165111</v>
+        <v>121.3996261450717</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2206,49 +2206,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.903692946355677</v>
+        <v>2.759527079630361</v>
       </c>
       <c r="C37">
-        <v>32.55823229483652</v>
+        <v>47.19528107434128</v>
       </c>
       <c r="D37">
-        <v>0.003444986143811031</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E37">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F37">
-        <v>2.062785246784936</v>
+        <v>2.990141744687381</v>
       </c>
       <c r="G37">
-        <v>9.909593141704738</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="H37">
-        <v>0.3355732911649604</v>
+        <v>0.4864353707582514</v>
       </c>
       <c r="I37">
-        <v>9.45776496547739</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="J37">
-        <v>0.6270572977554331</v>
+        <v>0.9089604481376584</v>
       </c>
       <c r="K37">
-        <v>3.158091414040441</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="L37">
-        <v>0.4799689901951517</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M37">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N37">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O37">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P37">
-        <v>65.3414267984185</v>
+        <v>94.71665954170751</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2256,49 +2256,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.464958568016536</v>
+        <v>2.123552985116143</v>
       </c>
       <c r="C38">
-        <v>25.05470299246569</v>
+        <v>36.31842598994811</v>
       </c>
       <c r="D38">
-        <v>0.005905690532247481</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E38">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F38">
-        <v>1.213403086344079</v>
+        <v>1.758906908639635</v>
       </c>
       <c r="G38">
-        <v>5.829172436296905</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="H38">
-        <v>0.1677866455824802</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I38">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J38">
-        <v>0.46627337525404</v>
+        <v>0.6758936665638996</v>
       </c>
       <c r="K38">
-        <v>2.348324384799302</v>
+        <v>3.404049347356903</v>
       </c>
       <c r="L38">
-        <v>0.4799689901951517</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M38">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N38">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O38">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P38">
-        <v>47.15675593438115</v>
+        <v>68.35679316748991</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,49 +2306,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.9151283599691981</v>
+        <v>1.326538240059698</v>
       </c>
       <c r="C39">
-        <v>15.65113837318552</v>
+        <v>22.68734579834805</v>
       </c>
       <c r="D39">
-        <v>0.004675338338029256</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E39">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F39">
-        <v>0.8493821604408558</v>
+        <v>1.231234836047745</v>
       </c>
       <c r="G39">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H39">
-        <v>0.0734066574423351</v>
+        <v>0.1064077373533675</v>
       </c>
       <c r="I39">
-        <v>2.068886086198179</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="J39">
-        <v>0.2411758837520897</v>
+        <v>0.3496001723606377</v>
       </c>
       <c r="K39">
-        <v>1.214650543861708</v>
+        <v>1.760715179667363</v>
       </c>
       <c r="L39">
-        <v>0.3199793267967678</v>
+        <v>0.4638309024088798</v>
       </c>
       <c r="M39">
-        <v>1.948930777665574</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="N39">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O39">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P39">
-        <v>29.22779280668043</v>
+        <v>42.36759183368372</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2356,49 +2356,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.6948196807173538</v>
+        <v>1.007186441526808</v>
       </c>
       <c r="C40">
-        <v>11.883271727789</v>
+        <v>17.22557736541239</v>
       </c>
       <c r="D40">
-        <v>0.01008888799258945</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E40">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F40">
-        <v>0.6673716974892442</v>
+        <v>0.9673987997517997</v>
       </c>
       <c r="G40">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H40">
-        <v>0.04194666139562005</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I40">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J40">
-        <v>0.2250974915019503</v>
+        <v>0.3262934942032619</v>
       </c>
       <c r="K40">
-        <v>1.133673840937594</v>
+        <v>1.643334167689539</v>
       </c>
       <c r="L40">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M40">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="N40">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O40">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P40">
-        <v>27.19125317590371</v>
+        <v>39.41549482107085</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2406,49 +2406,49 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.4971067634400583</v>
+        <v>0.7205886736126753</v>
       </c>
       <c r="C41">
-        <v>8.501852943458795</v>
+        <v>12.32399031021375</v>
       </c>
       <c r="D41">
-        <v>0.007628183604152998</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E41">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F41">
-        <v>0.4246910802204279</v>
+        <v>0.6156174180238727</v>
       </c>
       <c r="G41">
-        <v>2.040210352703916</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="H41">
-        <v>0.01048666534890501</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I41">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J41">
-        <v>0.4019598062534828</v>
+        <v>0.5826669539343965</v>
       </c>
       <c r="K41">
-        <v>2.024417573102847</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="L41">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M41">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="N41">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O41">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P41">
-        <v>21.29164370313403</v>
+        <v>30.86362613315169</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2456,43 +2456,43 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.3671811320864065</v>
+        <v>0.5322529975548175</v>
       </c>
       <c r="C42">
-        <v>6.279777742327521</v>
+        <v>9.10294738822607</v>
       </c>
       <c r="D42">
-        <v>0.00442926789918561</v>
+        <v>0.00642051268516732</v>
       </c>
       <c r="E42">
-        <v>1.602072092040468</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="F42">
-        <v>0.6673716974892442</v>
+        <v>0.9673987997517997</v>
       </c>
       <c r="G42">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H42">
-        <v>0.02097333069781003</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I42">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J42">
-        <v>0.2090190992518111</v>
+        <v>0.3029868160458861</v>
       </c>
       <c r="K42">
-        <v>1.05269713801348</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="L42">
-        <v>0.5332988779946127</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M42">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="P42">
-        <v>17.78219349088213</v>
+        <v>25.77644917330479</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2500,49 +2500,49 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2880959651754884</v>
+        <v>0.4176138903891644</v>
       </c>
       <c r="C43">
-        <v>4.927210228595441</v>
+        <v>7.142312566146606</v>
       </c>
       <c r="D43">
-        <v>0.003937127021498321</v>
+        <v>0.005707122386815392</v>
       </c>
       <c r="E43">
-        <v>1.424064081813749</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="F43">
-        <v>0.6673716974892442</v>
+        <v>0.9673987997517997</v>
       </c>
       <c r="G43">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H43">
-        <v>0.02097333069781003</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I43">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J43">
-        <v>0.2572542760022289</v>
+        <v>0.3729068505180137</v>
       </c>
       <c r="K43">
-        <v>1.295627246785822</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="L43">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M43">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N43">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O43">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P43">
-        <v>18.14475517743423</v>
+        <v>26.30200598328944</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4745110014655101</v>
+        <v>0.6878346429939177</v>
       </c>
       <c r="C44">
-        <v>8.115405082392488</v>
+        <v>11.76380893247677</v>
       </c>
       <c r="D44">
-        <v>0.003198915704967385</v>
+        <v>0.004637036939287507</v>
       </c>
       <c r="E44">
-        <v>1.157052066473671</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="F44">
-        <v>0.7280418518064476</v>
+        <v>1.055344145183782</v>
       </c>
       <c r="G44">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H44">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I44">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J44">
-        <v>0.7074492590061296</v>
+        <v>1.025493838924538</v>
       </c>
       <c r="K44">
-        <v>3.562974928661011</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="L44">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M44">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="P44">
-        <v>24.45838560592739</v>
+        <v>35.45402504789648</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.127905118562859</v>
+        <v>1.634972028386336</v>
       </c>
       <c r="C45">
-        <v>19.29018906489326</v>
+        <v>27.96238710537135</v>
       </c>
       <c r="D45">
-        <v>0.002706774827280095</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E45">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F45">
-        <v>1.152732932026876</v>
+        <v>1.670961563207654</v>
       </c>
       <c r="G45">
-        <v>5.537713814482057</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="H45">
-        <v>0.3355732911649604</v>
+        <v>0.4864353707582514</v>
       </c>
       <c r="I45">
-        <v>9.45776496547739</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="J45">
-        <v>1.543525656013374</v>
+        <v>2.237441103108082</v>
       </c>
       <c r="K45">
-        <v>7.773763480714932</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="L45">
-        <v>1.599896633983839</v>
+        <v>2.319154512044398</v>
       </c>
       <c r="M45">
-        <v>9.744653888327871</v>
+        <v>14.12551133203701</v>
       </c>
       <c r="N45">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O45">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P45">
-        <v>58.88335466965867</v>
+        <v>85.35526281245306</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>2.061863280177514</v>
+        <v>2.988805293961665</v>
       </c>
       <c r="C46">
-        <v>35.2633673223007</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="D46">
-        <v>0.002706774827280095</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E46">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F46">
-        <v>2.487476327005362</v>
+        <v>3.605759162711253</v>
       </c>
       <c r="G46">
-        <v>11.94980349440866</v>
+        <v>17.32201950015585</v>
       </c>
       <c r="H46">
-        <v>1.027693204192691</v>
+        <v>1.489708322947145</v>
       </c>
       <c r="I46">
-        <v>28.9644052067745</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="J46">
-        <v>1.961563854516996</v>
+        <v>2.843414735199854</v>
       </c>
       <c r="K46">
-        <v>9.879157756741892</v>
+        <v>14.32048346129455</v>
       </c>
       <c r="L46">
-        <v>3.146463380168216</v>
+        <v>4.561003873687317</v>
       </c>
       <c r="M46">
-        <v>19.16448598037814</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="N46">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O46">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P46">
-        <v>117.563800623613</v>
+        <v>170.4163962083155</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.815055345995784</v>
+        <v>4.08060631458693</v>
       </c>
       <c r="C47">
-        <v>48.14496269117764</v>
+        <v>69.78926330973319</v>
       </c>
       <c r="D47">
-        <v>0.004183197460341966</v>
+        <v>0.006063817535991355</v>
       </c>
       <c r="E47">
-        <v>1.513068086927108</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="F47">
-        <v>3.154848024494607</v>
+        <v>4.573157962463056</v>
       </c>
       <c r="G47">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H47">
-        <v>0.8179598972145909</v>
+        <v>1.185686216223238</v>
       </c>
       <c r="I47">
-        <v>23.05330210335114</v>
+        <v>33.41726487503161</v>
       </c>
       <c r="J47">
-        <v>2.041955815767693</v>
+        <v>2.959948125986734</v>
       </c>
       <c r="K47">
-        <v>10.28404127136246</v>
+        <v>14.90738852118368</v>
       </c>
       <c r="L47">
-        <v>2.559834614374143</v>
+        <v>3.710647219271038</v>
       </c>
       <c r="M47">
-        <v>15.59144622132459</v>
+        <v>22.60081813125921</v>
       </c>
       <c r="N47">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O47">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P47">
-        <v>126.3191030791017</v>
+        <v>183.1077781155326</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.106917271500365</v>
+        <v>4.503679210079224</v>
       </c>
       <c r="C48">
-        <v>53.13658089661747</v>
+        <v>77.02493943883596</v>
       </c>
       <c r="D48">
-        <v>0.006151760971091127</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E48">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F48">
-        <v>3.64020925903224</v>
+        <v>5.276720725918906</v>
       </c>
       <c r="G48">
-        <v>17.48751730889072</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="H48">
-        <v>0.4194666139562005</v>
+        <v>0.6080442134478141</v>
       </c>
       <c r="I48">
-        <v>11.82220620684673</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="J48">
-        <v>2.524307583271872</v>
+        <v>3.659148470708008</v>
       </c>
       <c r="K48">
-        <v>12.71334235908588</v>
+        <v>18.4288188805184</v>
       </c>
       <c r="L48">
-        <v>2.666494389973064</v>
+        <v>3.865257520073997</v>
       </c>
       <c r="M48">
-        <v>16.24108981387978</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="N48">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O48">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P48">
-        <v>127.509866060076</v>
+        <v>184.8338667149102</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.613576468389394</v>
+        <v>3.788549541569673</v>
       </c>
       <c r="C49">
-        <v>44.69913593000307</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="D49">
-        <v>0.01205745150333861</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E49">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F49">
-        <v>4.125570493569872</v>
+        <v>5.980283489374761</v>
       </c>
       <c r="G49">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H49">
-        <v>0.2831399644204353</v>
+        <v>0.4104298440772746</v>
       </c>
       <c r="I49">
-        <v>7.979989189621548</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="J49">
-        <v>3.103129704276887</v>
+        <v>4.49818888437354</v>
       </c>
       <c r="K49">
-        <v>15.62850366435398</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="L49">
-        <v>3.573102482563906</v>
+        <v>5.179445076899157</v>
       </c>
       <c r="M49">
-        <v>21.76306035059891</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="N49">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O49">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P49">
-        <v>128.6374182191395</v>
+        <v>186.4683271054831</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>3.772172526260294</v>
+        <v>2.563810121327484</v>
       </c>
       <c r="C2">
-        <v>64.51422200270986</v>
+        <v>43.84799851773864</v>
       </c>
       <c r="D2">
-        <v>0.02318518469643753</v>
+        <v>0.01575813692925239</v>
       </c>
       <c r="E2">
-        <v>8.386112151354824</v>
+        <v>5.699739092672475</v>
       </c>
       <c r="F2">
-        <v>6.332064871102689</v>
+        <v>4.303676963982811</v>
       </c>
       <c r="G2">
-        <v>30.41915619539564</v>
+        <v>20.67480742014592</v>
       </c>
       <c r="H2">
-        <v>0.2432176853791257</v>
+        <v>0.1653063212564784</v>
       </c>
       <c r="I2">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="J2">
-        <v>5.500376045140702</v>
+        <v>3.738407953895869</v>
       </c>
       <c r="K2">
-        <v>27.70191882676652</v>
+        <v>18.82799881867214</v>
       </c>
       <c r="L2">
-        <v>4.483698723285839</v>
+        <v>3.047408910307651</v>
       </c>
       <c r="M2">
-        <v>27.30932190860489</v>
+        <v>18.5611648005095</v>
       </c>
       <c r="N2">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O2">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P2">
-        <v>187.4994150177659</v>
+        <v>127.4366150060761</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>3.922295166596268</v>
+        <v>2.665843085635016</v>
       </c>
       <c r="C3">
-        <v>67.08171998400439</v>
+        <v>45.59303463819853</v>
       </c>
       <c r="D3">
-        <v>0.02033162350302984</v>
+        <v>0.01381867392257517</v>
       </c>
       <c r="E3">
-        <v>7.353975271188077</v>
+        <v>4.998232742805094</v>
       </c>
       <c r="F3">
-        <v>5.804392798510797</v>
+        <v>3.945037216984243</v>
       </c>
       <c r="G3">
-        <v>27.88422651244601</v>
+        <v>18.95190680180043</v>
       </c>
       <c r="H3">
-        <v>0.2432176853791257</v>
+        <v>0.1653063212564784</v>
       </c>
       <c r="I3">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="J3">
-        <v>4.311735459114533</v>
+        <v>2.930531658774305</v>
       </c>
       <c r="K3">
-        <v>21.71548721589748</v>
+        <v>14.75923636209469</v>
       </c>
       <c r="L3">
-        <v>3.865257520073997</v>
+        <v>2.62707664681694</v>
       </c>
       <c r="M3">
-        <v>23.54251888672835</v>
+        <v>16.00100413837026</v>
       </c>
       <c r="N3">
-        <v>0.1603075277129054</v>
+        <v>0.1089552662859759</v>
       </c>
       <c r="O3">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="P3">
-        <v>175.2938065203712</v>
+        <v>119.1409014922499</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.135196365618194</v>
+        <v>2.810544380471156</v>
       </c>
       <c r="C4">
-        <v>70.72289893929482</v>
+        <v>48.06781313630535</v>
       </c>
       <c r="D4">
-        <v>0.02175840409973369</v>
+        <v>0.01478840542591378</v>
       </c>
       <c r="E4">
-        <v>7.870043711271451</v>
+        <v>5.348985917738784</v>
       </c>
       <c r="F4">
-        <v>5.716447453078818</v>
+        <v>3.885263925817816</v>
       </c>
       <c r="G4">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="H4">
-        <v>0.2280165800429303</v>
+        <v>0.1549746761779484</v>
       </c>
       <c r="I4">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="J4">
-        <v>4.871095734891553</v>
+        <v>3.310708738831512</v>
       </c>
       <c r="K4">
-        <v>24.53263150336526</v>
+        <v>16.67394810636643</v>
       </c>
       <c r="L4">
-        <v>3.478731768066599</v>
+        <v>2.364368982135248</v>
       </c>
       <c r="M4">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="N4">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O4">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P4">
-        <v>179.1021544472916</v>
+        <v>121.7292987335222</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>4.11336034520569</v>
+        <v>2.795703222026423</v>
       </c>
       <c r="C5">
-        <v>70.34944468747018</v>
+        <v>47.8139897006021</v>
       </c>
       <c r="D5">
-        <v>0.01605128171291829</v>
+        <v>0.01090947941255934</v>
       </c>
       <c r="E5">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="F5">
-        <v>5.276720725918906</v>
+        <v>3.586397469985675</v>
       </c>
       <c r="G5">
-        <v>25.34929682949636</v>
+        <v>17.22900618345494</v>
       </c>
       <c r="H5">
-        <v>0.2280165800429303</v>
+        <v>0.1549746761779484</v>
       </c>
       <c r="I5">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="J5">
-        <v>4.917709091206306</v>
+        <v>3.342390162169612</v>
       </c>
       <c r="K5">
-        <v>24.76739352732091</v>
+        <v>16.83350741838908</v>
       </c>
       <c r="L5">
-        <v>2.628375113650319</v>
+        <v>1.78641211983552</v>
       </c>
       <c r="M5">
-        <v>16.00891284297528</v>
+        <v>10.88068281409177</v>
       </c>
       <c r="N5">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O5">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P5">
-        <v>167.8465934002501</v>
+        <v>114.0792983338232</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>4.252564975335415</v>
+        <v>2.890315607111588</v>
       </c>
       <c r="C6">
-        <v>72.73021554285235</v>
+        <v>49.43211410321038</v>
       </c>
       <c r="D6">
-        <v>0.01926153805550195</v>
+        <v>0.01309137529507121</v>
       </c>
       <c r="E6">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="F6">
-        <v>6.244119525670707</v>
+        <v>4.243903672816381</v>
       </c>
       <c r="G6">
-        <v>29.99666791490403</v>
+        <v>20.38765731708834</v>
       </c>
       <c r="H6">
-        <v>0.2888210013877117</v>
+        <v>0.1963012564920681</v>
       </c>
       <c r="I6">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="J6">
-        <v>4.21850874648503</v>
+        <v>2.867168812098103</v>
       </c>
       <c r="K6">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="L6">
-        <v>2.78298541445328</v>
+        <v>1.891495185708197</v>
       </c>
       <c r="M6">
-        <v>16.95061359844441</v>
+        <v>11.52072297962659</v>
       </c>
       <c r="N6">
-        <v>0.08744046966158478</v>
+        <v>0.05943014524689595</v>
       </c>
       <c r="O6">
-        <v>1.381918530058495</v>
+        <v>0.9392403686600335</v>
       </c>
       <c r="P6">
-        <v>175.3061073487997</v>
+        <v>119.1492619233294</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>4.339909056985435</v>
+        <v>2.94968024089052</v>
       </c>
       <c r="C7">
-        <v>74.22403255015102</v>
+        <v>50.44740784602347</v>
       </c>
       <c r="D7">
-        <v>0.01676467201127022</v>
+        <v>0.01139434516422865</v>
       </c>
       <c r="E7">
-        <v>6.063804170979642</v>
+        <v>4.121349805470867</v>
       </c>
       <c r="F7">
-        <v>6.507955561966651</v>
+        <v>4.423223546315666</v>
       </c>
       <c r="G7">
-        <v>31.26413275637885</v>
+        <v>21.24910762626109</v>
       </c>
       <c r="H7">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I7">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J7">
-        <v>3.705761827022761</v>
+        <v>2.518673155378997</v>
       </c>
       <c r="K7">
-        <v>18.66358090447405</v>
+        <v>12.6849653058003</v>
       </c>
       <c r="L7">
-        <v>2.241849361642919</v>
+        <v>1.523704455153825</v>
       </c>
       <c r="M7">
-        <v>13.65466095430244</v>
+        <v>9.280582400254749</v>
       </c>
       <c r="N7">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O7">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P7">
-        <v>171.8513593876494</v>
+        <v>116.8011938729495</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>4.754793444823033</v>
+        <v>3.231662251340433</v>
       </c>
       <c r="C8">
-        <v>81.31966333481951</v>
+        <v>55.27005312438544</v>
       </c>
       <c r="D8">
-        <v>0.01854814775715003</v>
+        <v>0.01260650954340191</v>
       </c>
       <c r="E8">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="F8">
-        <v>6.156174180238724</v>
+        <v>4.184130381649953</v>
       </c>
       <c r="G8">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="H8">
-        <v>0.5168375814306421</v>
+        <v>0.3512759326700164</v>
       </c>
       <c r="I8">
-        <v>14.56650007373172</v>
+        <v>9.900326684785869</v>
       </c>
       <c r="J8">
-        <v>4.032055321226022</v>
+        <v>2.740443118745703</v>
       </c>
       <c r="K8">
-        <v>20.30691507216359</v>
+        <v>13.80188048995882</v>
       </c>
       <c r="L8">
-        <v>1.468797857628119</v>
+        <v>0.9982891257904372</v>
       </c>
       <c r="M8">
-        <v>8.946157176956774</v>
+        <v>6.080381572580698</v>
       </c>
       <c r="N8">
-        <v>0.1603075277129054</v>
+        <v>0.1089552662859759</v>
       </c>
       <c r="O8">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="P8">
-        <v>181.0633363790917</v>
+        <v>123.0622436217822</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>5.246103904104407</v>
+        <v>3.565588316346906</v>
       </c>
       <c r="C9">
-        <v>89.72238400087438</v>
+        <v>60.98108042770886</v>
       </c>
       <c r="D9">
-        <v>0.01569458656374233</v>
+        <v>0.01066704653672469</v>
       </c>
       <c r="E9">
-        <v>5.676752840917112</v>
+        <v>3.858284924270599</v>
       </c>
       <c r="F9">
-        <v>5.892338143942778</v>
+        <v>4.00481050815067</v>
       </c>
       <c r="G9">
-        <v>28.30671479293761</v>
+        <v>19.23905690485802</v>
       </c>
       <c r="H9">
-        <v>0.9424685308441119</v>
+        <v>0.6405619948688535</v>
       </c>
       <c r="I9">
-        <v>26.56244131092256</v>
+        <v>18.05353689578599</v>
       </c>
       <c r="J9">
-        <v>3.775681861494887</v>
+        <v>2.566195290386148</v>
       </c>
       <c r="K9">
-        <v>19.01572394040753</v>
+        <v>12.92430427383427</v>
       </c>
       <c r="L9">
-        <v>1.468797857628119</v>
+        <v>0.9982891257904372</v>
       </c>
       <c r="M9">
-        <v>8.946157176956774</v>
+        <v>6.080381572580698</v>
       </c>
       <c r="N9">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O9">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P9">
-        <v>197.2855111139341</v>
+        <v>134.0878728806763</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>5.041391212737167</v>
+        <v>3.42645245592754</v>
       </c>
       <c r="C10">
-        <v>86.2212503900182</v>
+        <v>58.60148571799076</v>
       </c>
       <c r="D10">
-        <v>0.0178347574587981</v>
+        <v>0.0121216437917326</v>
       </c>
       <c r="E10">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="F10">
-        <v>7.299463670854489</v>
+        <v>4.961183166813519</v>
       </c>
       <c r="G10">
-        <v>35.06652728080331</v>
+        <v>23.83345855377934</v>
       </c>
       <c r="H10">
-        <v>1.140082900214652</v>
+        <v>0.7748733808897422</v>
       </c>
       <c r="I10">
-        <v>32.13198545676116</v>
+        <v>21.83895592232177</v>
       </c>
       <c r="J10">
-        <v>2.0276809996917</v>
+        <v>1.378141915207376</v>
       </c>
       <c r="K10">
-        <v>10.21214804207071</v>
+        <v>6.94083007298507</v>
       </c>
       <c r="L10">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M10">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N10">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O10">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P10">
-        <v>194.018077105417</v>
+        <v>131.8671153931838</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>3.646615408888389</v>
+        <v>2.478473460270273</v>
       </c>
       <c r="C11">
-        <v>62.36686005471806</v>
+        <v>42.38851376244484</v>
       </c>
       <c r="D11">
-        <v>0.01462450111621445</v>
+        <v>0.009939747909220736</v>
       </c>
       <c r="E11">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="F11">
-        <v>5.188775380486924</v>
+        <v>3.526624178819247</v>
       </c>
       <c r="G11">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="H11">
-        <v>0.9120663201717211</v>
+        <v>0.6198987047117938</v>
       </c>
       <c r="I11">
-        <v>25.70558836540892</v>
+        <v>17.47116473785742</v>
       </c>
       <c r="J11">
-        <v>1.048800517081914</v>
+        <v>0.7128320251072634</v>
       </c>
       <c r="K11">
-        <v>5.28214553900209</v>
+        <v>3.590084520509519</v>
       </c>
       <c r="L11">
-        <v>0.9276618048177596</v>
+        <v>0.6304983952360658</v>
       </c>
       <c r="M11">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="N11">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O11">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P11">
-        <v>141.6945319842262</v>
+        <v>96.30468190649566</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>3.048854350096058</v>
+        <v>2.072196747845729</v>
       </c>
       <c r="C12">
-        <v>52.14354991101806</v>
+        <v>35.44009721006807</v>
       </c>
       <c r="D12">
-        <v>0.01605128171291829</v>
+        <v>0.01090947941255934</v>
       </c>
       <c r="E12">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="F12">
-        <v>4.573157962463056</v>
+        <v>3.108211140654252</v>
       </c>
       <c r="G12">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="H12">
-        <v>0.7144519508011817</v>
+        <v>0.485587318690905</v>
       </c>
       <c r="I12">
-        <v>20.13604421957032</v>
+        <v>13.68574571132164</v>
       </c>
       <c r="J12">
-        <v>0.9322671262950343</v>
+        <v>0.6336284667620118</v>
       </c>
       <c r="K12">
-        <v>4.695240479112969</v>
+        <v>3.191186240452906</v>
       </c>
       <c r="L12">
-        <v>1.159577256022199</v>
+        <v>0.7881229940450823</v>
       </c>
       <c r="M12">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="N12">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O12">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P12">
-        <v>123.2366834060918</v>
+        <v>83.75954547036714</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.516601352541239</v>
+        <v>1.710443510755384</v>
       </c>
       <c r="C13">
-        <v>43.04060252279198</v>
+        <v>29.25315096480103</v>
       </c>
       <c r="D13">
-        <v>0.01070085447527886</v>
+        <v>0.007272986275039562</v>
       </c>
       <c r="E13">
-        <v>3.870513300625304</v>
+        <v>2.630648812002681</v>
       </c>
       <c r="F13">
-        <v>3.693704508143234</v>
+        <v>2.510478228989972</v>
       </c>
       <c r="G13">
-        <v>17.74450778064745</v>
+        <v>12.06030432841846</v>
       </c>
       <c r="H13">
-        <v>0.5320386867668376</v>
+        <v>0.3616075777485465</v>
       </c>
       <c r="I13">
-        <v>14.99492654648854</v>
+        <v>10.19151276375016</v>
       </c>
       <c r="J13">
-        <v>0.4661335631475171</v>
+        <v>0.3168142333810059</v>
       </c>
       <c r="K13">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="L13">
-        <v>0.5411360528103599</v>
+        <v>0.3677907305543717</v>
       </c>
       <c r="M13">
-        <v>3.295952644141968</v>
+        <v>2.240140579371835</v>
       </c>
       <c r="N13">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O13">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P13">
-        <v>93.54422438537621</v>
+        <v>63.57864800757724</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.927028801403594</v>
+        <v>1.309732232747614</v>
       </c>
       <c r="C14">
-        <v>32.95733772352619</v>
+        <v>22.39991820081292</v>
       </c>
       <c r="D14">
-        <v>0.009630769027750976</v>
+        <v>0.006545687647535606</v>
       </c>
       <c r="E14">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="F14">
-        <v>1.934797599503599</v>
+        <v>1.315012405661415</v>
       </c>
       <c r="G14">
-        <v>9.294742170815336</v>
+        <v>6.317302267266809</v>
       </c>
       <c r="H14">
-        <v>0.2432176853791257</v>
+        <v>0.1653063212564784</v>
       </c>
       <c r="I14">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="J14">
-        <v>0.5826669539343965</v>
+        <v>0.3960177917262574</v>
       </c>
       <c r="K14">
-        <v>2.934525299445606</v>
+        <v>1.994491400283066</v>
       </c>
       <c r="L14">
-        <v>0.3865257520073999</v>
+        <v>0.2627076646816942</v>
       </c>
       <c r="M14">
-        <v>2.354251888672835</v>
+        <v>1.600100413837026</v>
       </c>
       <c r="N14">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O14">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P14">
-        <v>63.69768967824768</v>
+        <v>43.29303083710533</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.132743558898713</v>
+        <v>0.769885094320482</v>
       </c>
       <c r="C15">
-        <v>19.37293931340419</v>
+        <v>13.16709072710675</v>
       </c>
       <c r="D15">
-        <v>0.004280341790111544</v>
+        <v>0.002909194510015825</v>
       </c>
       <c r="E15">
-        <v>1.548205320250122</v>
+        <v>1.052259524801072</v>
       </c>
       <c r="F15">
-        <v>1.055344145183782</v>
+        <v>0.7172794939971351</v>
       </c>
       <c r="G15">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="H15">
-        <v>0.1520110533619535</v>
+        <v>0.103316450785299</v>
       </c>
       <c r="I15">
-        <v>4.284264727568154</v>
+        <v>2.911860789642902</v>
       </c>
       <c r="J15">
-        <v>0.4661335631475171</v>
+        <v>0.3168142333810059</v>
       </c>
       <c r="K15">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="L15">
-        <v>0.5411360528103599</v>
+        <v>0.3677907305543717</v>
       </c>
       <c r="M15">
-        <v>3.295952644141968</v>
+        <v>2.240140579371835</v>
       </c>
       <c r="N15">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O15">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P15">
-        <v>39.51538349263265</v>
+        <v>26.85718626103946</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.9116538522220973</v>
+        <v>0.6196183650675682</v>
       </c>
       <c r="C16">
-        <v>15.59171501367952</v>
+        <v>10.59712844061121</v>
       </c>
       <c r="D16">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196997</v>
       </c>
       <c r="E16">
-        <v>2.9673935304794</v>
+        <v>2.016830755868722</v>
       </c>
       <c r="F16">
-        <v>1.231234836047745</v>
+        <v>0.836826076329991</v>
       </c>
       <c r="G16">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="H16">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I16">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J16">
-        <v>0.2563734597311345</v>
+        <v>0.1742478283595533</v>
       </c>
       <c r="K16">
-        <v>1.291191131756066</v>
+        <v>0.8775762161245491</v>
       </c>
       <c r="L16">
-        <v>0.6184412032118403</v>
+        <v>0.4203322634907105</v>
       </c>
       <c r="M16">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="N16">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O16">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P16">
-        <v>34.13362186521691</v>
+        <v>23.19939626472151</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.578654540931391</v>
+        <v>0.3932906987854025</v>
       </c>
       <c r="C17">
-        <v>9.896537673353473</v>
+        <v>6.726321046136461</v>
       </c>
       <c r="D17">
-        <v>0.01105754962445482</v>
+        <v>0.007515419150874214</v>
       </c>
       <c r="E17">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="F17">
-        <v>0.6156174180238727</v>
+        <v>0.4184130381649955</v>
       </c>
       <c r="G17">
-        <v>2.957417963441242</v>
+        <v>2.010050721403076</v>
       </c>
       <c r="H17">
-        <v>0.01520110533619536</v>
+        <v>0.0103316450785299</v>
       </c>
       <c r="I17">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="J17">
-        <v>0.5360535976196447</v>
+        <v>0.3643363683881568</v>
       </c>
       <c r="K17">
-        <v>2.699763275489957</v>
+        <v>1.834932088260421</v>
       </c>
       <c r="L17">
-        <v>0.6184412032118403</v>
+        <v>0.4203322634907105</v>
       </c>
       <c r="M17">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="P17">
-        <v>26.12350423231157</v>
+        <v>17.75520713569826</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,43 +1274,43 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.3957778699766589</v>
+        <v>0.2689959968107707</v>
       </c>
       <c r="C18">
-        <v>6.768858314321946</v>
+        <v>4.600549772121635</v>
       </c>
       <c r="D18">
-        <v>0.009630769027750976</v>
+        <v>0.006545687647535606</v>
       </c>
       <c r="E18">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="F18">
-        <v>0.6156174180238727</v>
+        <v>0.4184130381649955</v>
       </c>
       <c r="G18">
-        <v>2.957417963441242</v>
+        <v>2.010050721403076</v>
       </c>
       <c r="H18">
-        <v>0.01520110533619536</v>
+        <v>0.0103316450785299</v>
       </c>
       <c r="I18">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="J18">
-        <v>0.2796801378885103</v>
+        <v>0.1900885400286036</v>
       </c>
       <c r="K18">
-        <v>1.408572143733891</v>
+        <v>0.9573558721358718</v>
       </c>
       <c r="L18">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M18">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="P18">
-        <v>22.39235497456617</v>
+        <v>15.2192790558989</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,43 +1318,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4094253827344747</v>
+        <v>0.2782717208387281</v>
       </c>
       <c r="C19">
-        <v>7.002267221712358</v>
+        <v>4.759189419436173</v>
       </c>
       <c r="D19">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196997</v>
       </c>
       <c r="E19">
-        <v>2.9673935304794</v>
+        <v>2.016830755868722</v>
       </c>
       <c r="F19">
-        <v>0.8794534543198177</v>
+        <v>0.5977329116642792</v>
       </c>
       <c r="G19">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="H19">
-        <v>0.07600552668097676</v>
+        <v>0.05165822539264948</v>
       </c>
       <c r="I19">
-        <v>2.142132363784077</v>
+        <v>1.455930394821451</v>
       </c>
       <c r="J19">
-        <v>0.4894402413048929</v>
+        <v>0.3326549450500562</v>
       </c>
       <c r="K19">
-        <v>2.465001251534308</v>
+        <v>1.675372776237776</v>
       </c>
       <c r="L19">
-        <v>0.69574635361332</v>
+        <v>0.4728737964270494</v>
       </c>
       <c r="M19">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="P19">
-        <v>25.59760551912184</v>
+        <v>17.39777267736355</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1362,43 +1362,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.7014821557517338</v>
+        <v>0.4767722150370211</v>
       </c>
       <c r="C20">
-        <v>11.99721783986717</v>
+        <v>8.154077871967313</v>
       </c>
       <c r="D20">
-        <v>0.004993732088463468</v>
+        <v>0.003394060261685129</v>
       </c>
       <c r="E20">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="F20">
-        <v>1.319180181479726</v>
+        <v>0.8965993674964188</v>
       </c>
       <c r="G20">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="H20">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I20">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J20">
-        <v>0.9788804826097858</v>
+        <v>0.6653098901001124</v>
       </c>
       <c r="K20">
-        <v>4.930002503068617</v>
+        <v>3.350745552475551</v>
       </c>
       <c r="L20">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M20">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="P20">
-        <v>35.43591418630695</v>
+        <v>24.0845175603394</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.626783520731645</v>
+        <v>1.105666304132547</v>
       </c>
       <c r="C21">
-        <v>27.82234176093712</v>
+        <v>18.90984595989307</v>
       </c>
       <c r="D21">
-        <v>0.004280341790111544</v>
+        <v>0.002909194510015825</v>
       </c>
       <c r="E21">
-        <v>1.548205320250122</v>
+        <v>1.052259524801072</v>
       </c>
       <c r="F21">
-        <v>3.078087090119362</v>
+        <v>2.092065190824977</v>
       </c>
       <c r="G21">
-        <v>14.78708981720621</v>
+        <v>10.05025360701538</v>
       </c>
       <c r="H21">
-        <v>0.5776420027754234</v>
+        <v>0.3926025129841362</v>
       </c>
       <c r="I21">
-        <v>16.28020596475899</v>
+        <v>11.06507100064303</v>
       </c>
       <c r="J21">
-        <v>1.678080827331061</v>
+        <v>1.140531240171621</v>
       </c>
       <c r="K21">
-        <v>8.451432862403344</v>
+        <v>5.744135232815229</v>
       </c>
       <c r="L21">
-        <v>2.241849361642919</v>
+        <v>1.523704455153825</v>
       </c>
       <c r="M21">
-        <v>13.65466095430244</v>
+        <v>9.280582400254749</v>
       </c>
       <c r="N21">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O21">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P21">
-        <v>91.99555299086877</v>
+        <v>62.5260717088508</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>2.896002207208519</v>
+        <v>1.968308638732604</v>
       </c>
       <c r="C22">
-        <v>49.52937014824542</v>
+        <v>33.66333316014521</v>
       </c>
       <c r="D22">
-        <v>0.01426780596703848</v>
+        <v>0.009697315033386082</v>
       </c>
       <c r="E22">
-        <v>5.160684400833739</v>
+        <v>3.507531749336908</v>
       </c>
       <c r="F22">
-        <v>5.540556762214854</v>
+        <v>3.76571734348496</v>
       </c>
       <c r="G22">
-        <v>26.61676167097118</v>
+        <v>18.09045649262769</v>
       </c>
       <c r="H22">
-        <v>1.489708322947145</v>
+        <v>1.01250121769593</v>
       </c>
       <c r="I22">
-        <v>41.98579433016792</v>
+        <v>28.53623573850044</v>
       </c>
       <c r="J22">
-        <v>2.796801378885101</v>
+        <v>1.900885400286035</v>
       </c>
       <c r="K22">
-        <v>14.0857214373389</v>
+        <v>9.573558721358717</v>
       </c>
       <c r="L22">
-        <v>3.478731768066599</v>
+        <v>2.364368982135248</v>
       </c>
       <c r="M22">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="N22">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O22">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P22">
-        <v>176.007133064002</v>
+        <v>119.6257239121261</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>4.00963924824629</v>
+        <v>2.725207719413945</v>
       </c>
       <c r="C23">
-        <v>68.57553699130304</v>
+        <v>46.6083283810116</v>
       </c>
       <c r="D23">
-        <v>0.007133902983519241</v>
+        <v>0.004848657516693041</v>
       </c>
       <c r="E23">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="F23">
-        <v>3.693704508143234</v>
+        <v>2.510478228989972</v>
       </c>
       <c r="G23">
-        <v>17.74450778064745</v>
+        <v>12.06030432841846</v>
       </c>
       <c r="H23">
-        <v>1.246490637568019</v>
+        <v>0.8471948964394518</v>
       </c>
       <c r="I23">
-        <v>35.13097076605887</v>
+        <v>23.87725847507181</v>
       </c>
       <c r="J23">
-        <v>3.309548298347372</v>
+        <v>2.249381057005142</v>
       </c>
       <c r="K23">
-        <v>16.66810370085104</v>
+        <v>11.32871115360781</v>
       </c>
       <c r="L23">
-        <v>3.169511166460679</v>
+        <v>2.154202850389892</v>
       </c>
       <c r="M23">
-        <v>19.30486548711725</v>
+        <v>13.12082339346361</v>
       </c>
       <c r="N23">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O23">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P23">
-        <v>177.8892863543438</v>
+        <v>120.9049558725084</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>4.692014886137081</v>
+        <v>3.188993920811827</v>
       </c>
       <c r="C24">
-        <v>80.2459823608236</v>
+        <v>54.54031074673855</v>
       </c>
       <c r="D24">
-        <v>0.008560683580223088</v>
+        <v>0.005818389020031649</v>
       </c>
       <c r="E24">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="F24">
-        <v>4.573157962463056</v>
+        <v>3.108211140654252</v>
       </c>
       <c r="G24">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="H24">
-        <v>0.547239792103033</v>
+        <v>0.3719392228270763</v>
       </c>
       <c r="I24">
-        <v>15.42335301924535</v>
+        <v>10.48269884271445</v>
       </c>
       <c r="J24">
-        <v>3.519308401763753</v>
+        <v>2.391947462026595</v>
       </c>
       <c r="K24">
-        <v>17.72453280865146</v>
+        <v>12.04672805770972</v>
       </c>
       <c r="L24">
-        <v>4.406393572884359</v>
+        <v>2.994867377371312</v>
       </c>
       <c r="M24">
-        <v>26.83847153087032</v>
+        <v>18.2411447177421</v>
       </c>
       <c r="N24">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O24">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P24">
-        <v>185.0039615775461</v>
+        <v>125.7405449714216</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>3.788549541569673</v>
+        <v>2.574940990161033</v>
       </c>
       <c r="C25">
-        <v>64.79431269157838</v>
+        <v>44.03836609451609</v>
       </c>
       <c r="D25">
-        <v>0.01747806230962214</v>
+        <v>0.01187921091589795</v>
       </c>
       <c r="E25">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="F25">
-        <v>5.980283489374761</v>
+        <v>4.064583799317099</v>
       </c>
       <c r="G25">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="H25">
-        <v>0.4104298440772746</v>
+        <v>0.2789544171203072</v>
       </c>
       <c r="I25">
-        <v>11.56751476443401</v>
+        <v>7.862024132035837</v>
       </c>
       <c r="J25">
-        <v>4.49818888437354</v>
+        <v>3.057257352126707</v>
       </c>
       <c r="K25">
-        <v>22.65453531172007</v>
+        <v>15.39747361018527</v>
       </c>
       <c r="L25">
-        <v>5.179445076899157</v>
+        <v>3.520282706734701</v>
       </c>
       <c r="M25">
-        <v>31.54697530821599</v>
+        <v>21.44134554541615</v>
       </c>
       <c r="N25">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O25">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P25">
-        <v>186.4683271054831</v>
+        <v>126.735821601987</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>3.878623125771257</v>
+        <v>2.636160768745552</v>
       </c>
       <c r="C26">
-        <v>66.3348114803551</v>
+        <v>45.08538776679202</v>
       </c>
       <c r="D26">
-        <v>0.01926153805550195</v>
+        <v>0.01309137529507121</v>
       </c>
       <c r="E26">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="F26">
-        <v>5.716447453078818</v>
+        <v>3.885263925817816</v>
       </c>
       <c r="G26">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="H26">
-        <v>0.2432176853791257</v>
+        <v>0.1653063212564784</v>
       </c>
       <c r="I26">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="J26">
-        <v>5.873282895658713</v>
+        <v>3.991859340600676</v>
       </c>
       <c r="K26">
-        <v>29.5800150184117</v>
+        <v>20.1044733148533</v>
       </c>
       <c r="L26">
-        <v>5.334055377702118</v>
+        <v>3.625365772607378</v>
       </c>
       <c r="M26">
-        <v>32.48867606368512</v>
+        <v>22.08138571095095</v>
       </c>
       <c r="N26">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O26">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P26">
-        <v>193.2008080414866</v>
+        <v>131.3116469772071</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>3.810385561982179</v>
+        <v>2.589782148605765</v>
       </c>
       <c r="C27">
-        <v>65.16776694340304</v>
+        <v>44.29218953021937</v>
       </c>
       <c r="D27">
-        <v>0.02318518469643753</v>
+        <v>0.01575813692925239</v>
       </c>
       <c r="E27">
-        <v>8.386112151354824</v>
+        <v>5.699739092672475</v>
       </c>
       <c r="F27">
-        <v>5.100830035054941</v>
+        <v>3.466850887652819</v>
       </c>
       <c r="G27">
-        <v>24.50432026851315</v>
+        <v>16.65470597733977</v>
       </c>
       <c r="H27">
-        <v>0.1976143693705396</v>
+        <v>0.1343113860208887</v>
       </c>
       <c r="I27">
-        <v>5.5695441458386</v>
+        <v>3.785419026535775</v>
       </c>
       <c r="J27">
-        <v>4.871095734891553</v>
+        <v>3.310708738831512</v>
       </c>
       <c r="K27">
-        <v>24.53263150336526</v>
+        <v>16.67394810636643</v>
       </c>
       <c r="L27">
-        <v>4.947529625694722</v>
+        <v>3.362658107925684</v>
       </c>
       <c r="M27">
-        <v>30.13442417501229</v>
+        <v>20.48128529711393</v>
       </c>
       <c r="N27">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O27">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P27">
-        <v>179.4494781987577</v>
+        <v>121.9653622070741</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>3.88954113597751</v>
+        <v>2.643581347967919</v>
       </c>
       <c r="C28">
-        <v>66.52153860626744</v>
+        <v>45.21229948464364</v>
       </c>
       <c r="D28">
-        <v>0.0178347574587981</v>
+        <v>0.0121216437917326</v>
       </c>
       <c r="E28">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="F28">
-        <v>4.485212617031072</v>
+        <v>3.048437849487823</v>
       </c>
       <c r="G28">
-        <v>21.5469023050719</v>
+        <v>14.64465525593669</v>
       </c>
       <c r="H28">
-        <v>0.2888210013877117</v>
+        <v>0.1963012564920681</v>
       </c>
       <c r="I28">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="J28">
-        <v>4.125282033855526</v>
+        <v>2.803805965421902</v>
       </c>
       <c r="K28">
-        <v>20.77643912007489</v>
+        <v>14.12099911400411</v>
       </c>
       <c r="L28">
-        <v>3.633342068869561</v>
+        <v>2.469452048007924</v>
       </c>
       <c r="M28">
-        <v>22.12996775352465</v>
+        <v>15.04094389006804</v>
       </c>
       <c r="N28">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O28">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P28">
-        <v>165.1894510490009</v>
+        <v>112.2733341562795</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>4.116089847757252</v>
+        <v>2.797558366832014</v>
       </c>
       <c r="C29">
-        <v>70.39612646894827</v>
+        <v>47.84571763006499</v>
       </c>
       <c r="D29">
-        <v>0.01605128171291829</v>
+        <v>0.01090947941255934</v>
       </c>
       <c r="E29">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="F29">
-        <v>6.507955561966651</v>
+        <v>4.423223546315666</v>
       </c>
       <c r="G29">
-        <v>31.26413275637885</v>
+        <v>21.24910762626109</v>
       </c>
       <c r="H29">
-        <v>0.3800276334048839</v>
+        <v>0.2582911269632474</v>
       </c>
       <c r="I29">
-        <v>10.71066181892039</v>
+        <v>7.279651974107258</v>
       </c>
       <c r="J29">
-        <v>4.707948987789922</v>
+        <v>3.19982375714816</v>
       </c>
       <c r="K29">
-        <v>23.7109644195205</v>
+        <v>16.11549051428717</v>
       </c>
       <c r="L29">
-        <v>3.556036918468079</v>
+        <v>2.416910515071587</v>
       </c>
       <c r="M29">
-        <v>21.65911737579007</v>
+        <v>14.72092380730063</v>
       </c>
       <c r="N29">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O29">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P29">
-        <v>186.0144941876559</v>
+        <v>126.4273676752334</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>3.613861378269632</v>
+        <v>2.456211722603174</v>
       </c>
       <c r="C30">
-        <v>61.80667867698107</v>
+        <v>42.00777860888999</v>
       </c>
       <c r="D30">
-        <v>0.01533789141456637</v>
+        <v>0.01042461366089004</v>
       </c>
       <c r="E30">
-        <v>5.547735730896268</v>
+        <v>3.770596630537177</v>
       </c>
       <c r="F30">
-        <v>6.595900907398633</v>
+        <v>4.482996837482097</v>
       </c>
       <c r="G30">
-        <v>31.68662103687046</v>
+        <v>21.53625772931867</v>
       </c>
       <c r="H30">
-        <v>0.2432176853791257</v>
+        <v>0.1653063212564784</v>
       </c>
       <c r="I30">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="J30">
-        <v>4.288428780957157</v>
+        <v>2.914690947105254</v>
       </c>
       <c r="K30">
-        <v>21.59810620391966</v>
+        <v>14.67945670608337</v>
       </c>
       <c r="L30">
-        <v>2.08723906083996</v>
+        <v>1.418621389281148</v>
       </c>
       <c r="M30">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="N30">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O30">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P30">
-        <v>159.010056448829</v>
+        <v>108.0734216895761</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>4.249835472783849</v>
+        <v>2.888460462306</v>
       </c>
       <c r="C31">
-        <v>72.68353376137429</v>
+        <v>49.40038617374748</v>
       </c>
       <c r="D31">
-        <v>0.01177093992280675</v>
+        <v>0.008000284902543519</v>
       </c>
       <c r="E31">
-        <v>4.257564630687835</v>
+        <v>2.89371369320295</v>
       </c>
       <c r="F31">
-        <v>4.749048653327015</v>
+        <v>3.227757722987108</v>
       </c>
       <c r="G31">
-        <v>22.81436714654673</v>
+        <v>15.50610556510944</v>
       </c>
       <c r="H31">
-        <v>0.2280165800429303</v>
+        <v>0.1549746761779484</v>
       </c>
       <c r="I31">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="J31">
-        <v>4.195202068327655</v>
+        <v>2.851328100429054</v>
       </c>
       <c r="K31">
-        <v>21.12858215600836</v>
+        <v>14.36033808203807</v>
       </c>
       <c r="L31">
-        <v>3.246816316862161</v>
+        <v>2.206744383326231</v>
       </c>
       <c r="M31">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="N31">
-        <v>0.218601174153962</v>
+        <v>0.1485753631172399</v>
       </c>
       <c r="O31">
-        <v>3.45479632514624</v>
+        <v>2.348100921650083</v>
       </c>
       <c r="P31">
-        <v>167.4402481813879</v>
+        <v>113.8031200896895</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>4.85578503923087</v>
+        <v>3.300302609147316</v>
       </c>
       <c r="C32">
-        <v>83.04688924950857</v>
+        <v>56.44398651451301</v>
       </c>
       <c r="D32">
-        <v>0.01569458656374233</v>
+        <v>0.01066704653672469</v>
       </c>
       <c r="E32">
-        <v>5.676752840917112</v>
+        <v>3.858284924270599</v>
       </c>
       <c r="F32">
-        <v>5.716447453078818</v>
+        <v>3.885263925817816</v>
       </c>
       <c r="G32">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="H32">
-        <v>0.5016364760944468</v>
+        <v>0.3409442875914866</v>
       </c>
       <c r="I32">
-        <v>14.13807360097491</v>
+        <v>9.609140605821581</v>
       </c>
       <c r="J32">
-        <v>4.0553619993834</v>
+        <v>2.756283830414751</v>
       </c>
       <c r="K32">
-        <v>20.42429608414142</v>
+        <v>13.88166014597014</v>
       </c>
       <c r="L32">
-        <v>2.628375113650319</v>
+        <v>1.78641211983552</v>
       </c>
       <c r="M32">
-        <v>16.00891284297528</v>
+        <v>10.88068281409177</v>
       </c>
       <c r="N32">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O32">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P32">
-        <v>186.7340020180534</v>
+        <v>126.916391293614</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>5.325259478099738</v>
+        <v>3.61938751570906</v>
       </c>
       <c r="C33">
-        <v>91.07615566373877</v>
+        <v>61.90119038213319</v>
       </c>
       <c r="D33">
-        <v>0.01177093992280675</v>
+        <v>0.008000284902543519</v>
       </c>
       <c r="E33">
-        <v>4.257564630687835</v>
+        <v>2.89371369320295</v>
       </c>
       <c r="F33">
-        <v>4.309321926167107</v>
+        <v>2.928891267154968</v>
       </c>
       <c r="G33">
-        <v>20.7019257440887</v>
+        <v>14.07035504982153</v>
       </c>
       <c r="H33">
-        <v>0.85126189882694</v>
+        <v>0.5785721243976742</v>
       </c>
       <c r="I33">
-        <v>23.99188247438166</v>
+        <v>16.30642042200025</v>
       </c>
       <c r="J33">
-        <v>3.309548298347372</v>
+        <v>2.249381057005142</v>
       </c>
       <c r="K33">
-        <v>16.66810370085104</v>
+        <v>11.32871115360781</v>
       </c>
       <c r="L33">
-        <v>1.314187556825159</v>
+        <v>0.89320605991776</v>
       </c>
       <c r="M33">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="N33">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O33">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P33">
-        <v>181.5356908997649</v>
+        <v>123.3832860164569</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,49 +2056,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>5.557267194982606</v>
+        <v>3.77707482418434</v>
       </c>
       <c r="C34">
-        <v>95.04410708937579</v>
+        <v>64.59806438648032</v>
       </c>
       <c r="D34">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196997</v>
       </c>
       <c r="E34">
-        <v>2.9673935304794</v>
+        <v>2.016830755868722</v>
       </c>
       <c r="F34">
-        <v>4.924939344190982</v>
+        <v>3.347304305319964</v>
       </c>
       <c r="G34">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="H34">
-        <v>1.094479584206066</v>
+        <v>0.7438784456541526</v>
       </c>
       <c r="I34">
-        <v>30.84670603849071</v>
+        <v>20.96539768542889</v>
       </c>
       <c r="J34">
-        <v>2.237441103108082</v>
+        <v>1.520708320228829</v>
       </c>
       <c r="K34">
-        <v>11.26857714987112</v>
+        <v>7.658846977086974</v>
       </c>
       <c r="L34">
-        <v>0.69574635361332</v>
+        <v>0.4728737964270494</v>
       </c>
       <c r="M34">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="N34">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O34">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P34">
-        <v>183.7663243169902</v>
+        <v>124.8993673972105</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2106,49 +2106,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>3.8977296436322</v>
+        <v>2.649146782384693</v>
       </c>
       <c r="C35">
-        <v>66.66158395070165</v>
+        <v>45.30748327303237</v>
       </c>
       <c r="D35">
-        <v>0.007490598132695203</v>
+        <v>0.005091090392527693</v>
       </c>
       <c r="E35">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="F35">
-        <v>4.045485889871162</v>
+        <v>2.749571393655684</v>
       </c>
       <c r="G35">
-        <v>19.43446090261388</v>
+        <v>13.20890474064879</v>
       </c>
       <c r="H35">
-        <v>0.8208596881545491</v>
+        <v>0.5579088342406143</v>
       </c>
       <c r="I35">
-        <v>23.13502952886803</v>
+        <v>15.72404826407167</v>
       </c>
       <c r="J35">
-        <v>1.305173976813047</v>
+        <v>0.8870798534668164</v>
       </c>
       <c r="K35">
-        <v>6.573336670758156</v>
+        <v>4.467660736634067</v>
       </c>
       <c r="L35">
-        <v>1.159577256022199</v>
+        <v>0.7881229940450823</v>
       </c>
       <c r="M35">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="N35">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O35">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P35">
-        <v>138.0373089151239</v>
+        <v>93.81899880074104</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2156,49 +2156,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>3.450091225175841</v>
+        <v>2.344903034267683</v>
       </c>
       <c r="C36">
-        <v>59.00577178829615</v>
+        <v>40.10410284111551</v>
       </c>
       <c r="D36">
-        <v>0.004993732088463468</v>
+        <v>0.003394060261685129</v>
       </c>
       <c r="E36">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="F36">
-        <v>2.726305708391434</v>
+        <v>1.852972026159266</v>
       </c>
       <c r="G36">
-        <v>13.09713669523979</v>
+        <v>8.90165319478505</v>
       </c>
       <c r="H36">
-        <v>0.8816641094993306</v>
+        <v>0.5992354145547341</v>
       </c>
       <c r="I36">
-        <v>24.84873541989531</v>
+        <v>16.88879257992884</v>
       </c>
       <c r="J36">
-        <v>1.025493838924538</v>
+        <v>0.6969913134382131</v>
       </c>
       <c r="K36">
-        <v>5.164764527024265</v>
+        <v>3.510304864498196</v>
       </c>
       <c r="L36">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M36">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N36">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O36">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P36">
-        <v>121.3996261450717</v>
+        <v>82.51096366068758</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2206,49 +2206,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.759527079630361</v>
+        <v>1.875551398453028</v>
       </c>
       <c r="C37">
-        <v>47.19528107434128</v>
+        <v>32.07693668699983</v>
       </c>
       <c r="D37">
-        <v>0.004993732088463468</v>
+        <v>0.003394060261685129</v>
       </c>
       <c r="E37">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="F37">
-        <v>2.990141744687381</v>
+        <v>2.03229189965855</v>
       </c>
       <c r="G37">
-        <v>14.36460153671461</v>
+        <v>9.763103503957799</v>
       </c>
       <c r="H37">
-        <v>0.4864353707582514</v>
+        <v>0.3306126425129567</v>
       </c>
       <c r="I37">
-        <v>13.7096471282181</v>
+        <v>9.317954526857289</v>
       </c>
       <c r="J37">
-        <v>0.9089604481376584</v>
+        <v>0.6177877550929614</v>
       </c>
       <c r="K37">
-        <v>4.577859467135145</v>
+        <v>3.111406584441583</v>
       </c>
       <c r="L37">
-        <v>0.69574635361332</v>
+        <v>0.4728737964270494</v>
       </c>
       <c r="M37">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="N37">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O37">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P37">
-        <v>94.71665954170751</v>
+        <v>64.3755100544419</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2256,49 +2256,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>2.123552985116143</v>
+        <v>1.443302658750204</v>
       </c>
       <c r="C38">
-        <v>36.31842598994811</v>
+        <v>24.68432912214228</v>
       </c>
       <c r="D38">
-        <v>0.008560683580223088</v>
+        <v>0.005818389020031649</v>
       </c>
       <c r="E38">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="F38">
-        <v>1.758906908639635</v>
+        <v>1.195465823328558</v>
       </c>
       <c r="G38">
-        <v>8.449765609832122</v>
+        <v>5.743002061151644</v>
       </c>
       <c r="H38">
-        <v>0.2432176853791257</v>
+        <v>0.1653063212564784</v>
       </c>
       <c r="I38">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="J38">
-        <v>0.6758936665638996</v>
+        <v>0.4593806384024586</v>
       </c>
       <c r="K38">
-        <v>3.404049347356903</v>
+        <v>2.313610024328356</v>
       </c>
       <c r="L38">
-        <v>0.69574635361332</v>
+        <v>0.4728737964270494</v>
       </c>
       <c r="M38">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="N38">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O38">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P38">
-        <v>68.35679316748991</v>
+        <v>46.4596560640468</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,49 +2306,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.326538240059698</v>
+        <v>0.9016003755174796</v>
       </c>
       <c r="C39">
-        <v>22.68734579834805</v>
+        <v>15.4197737189732</v>
       </c>
       <c r="D39">
-        <v>0.006777207834343279</v>
+        <v>0.004606224640858389</v>
       </c>
       <c r="E39">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="F39">
-        <v>1.231234836047745</v>
+        <v>0.836826076329991</v>
       </c>
       <c r="G39">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="H39">
-        <v>0.1064077373533675</v>
+        <v>0.07232151554970928</v>
       </c>
       <c r="I39">
-        <v>2.998985309297708</v>
+        <v>2.038302552750032</v>
       </c>
       <c r="J39">
-        <v>0.3496001723606377</v>
+        <v>0.2376106750357544</v>
       </c>
       <c r="K39">
-        <v>1.760715179667363</v>
+        <v>1.19669484016984</v>
       </c>
       <c r="L39">
-        <v>0.4638309024088798</v>
+        <v>0.3152491976180329</v>
       </c>
       <c r="M39">
-        <v>2.825102266407402</v>
+        <v>1.920120496604431</v>
       </c>
       <c r="N39">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O39">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P39">
-        <v>42.36759183368372</v>
+        <v>28.79572978258166</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2356,49 +2356,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.007186441526808</v>
+        <v>0.6845484332632712</v>
       </c>
       <c r="C40">
-        <v>17.22557736541239</v>
+        <v>11.70760597181299</v>
       </c>
       <c r="D40">
-        <v>0.01462450111621445</v>
+        <v>0.009939747909220736</v>
       </c>
       <c r="E40">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="F40">
-        <v>0.9673987997517997</v>
+        <v>0.6575062028307073</v>
       </c>
       <c r="G40">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="H40">
-        <v>0.06080442134478142</v>
+        <v>0.04132658031411959</v>
       </c>
       <c r="I40">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="J40">
-        <v>0.3262934942032619</v>
+        <v>0.2217699633667041</v>
       </c>
       <c r="K40">
-        <v>1.643334167689539</v>
+        <v>1.116915184158517</v>
       </c>
       <c r="L40">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M40">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="N40">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O40">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P40">
-        <v>39.41549482107085</v>
+        <v>26.78929552025992</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2406,49 +2406,49 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.7205886736126753</v>
+        <v>0.4897582286761616</v>
       </c>
       <c r="C41">
-        <v>12.32399031021375</v>
+        <v>8.376173378207666</v>
       </c>
       <c r="D41">
-        <v>0.01105754962445482</v>
+        <v>0.007515419150874214</v>
       </c>
       <c r="E41">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="F41">
-        <v>0.6156174180238727</v>
+        <v>0.4184130381649955</v>
       </c>
       <c r="G41">
-        <v>2.957417963441242</v>
+        <v>2.010050721403076</v>
       </c>
       <c r="H41">
-        <v>0.01520110533619536</v>
+        <v>0.0103316450785299</v>
       </c>
       <c r="I41">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="J41">
-        <v>0.5826669539343965</v>
+        <v>0.3960177917262574</v>
       </c>
       <c r="K41">
-        <v>2.934525299445606</v>
+        <v>1.994491400283066</v>
       </c>
       <c r="L41">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M41">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="N41">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O41">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P41">
-        <v>30.86362613315169</v>
+        <v>20.97689766578336</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2456,43 +2456,43 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.5322529975548175</v>
+        <v>0.3617532370903467</v>
       </c>
       <c r="C42">
-        <v>9.10294738822607</v>
+        <v>6.186946245267027</v>
       </c>
       <c r="D42">
-        <v>0.00642051268516732</v>
+        <v>0.004363791765023737</v>
       </c>
       <c r="E42">
-        <v>2.322307980375183</v>
+        <v>1.578389287201609</v>
       </c>
       <c r="F42">
-        <v>0.9673987997517997</v>
+        <v>0.6575062028307073</v>
       </c>
       <c r="G42">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="H42">
-        <v>0.03040221067239071</v>
+        <v>0.0206632901570598</v>
       </c>
       <c r="I42">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="J42">
-        <v>0.3029868160458861</v>
+        <v>0.2059292516976539</v>
       </c>
       <c r="K42">
-        <v>1.525953155711715</v>
+        <v>1.037135528147194</v>
       </c>
       <c r="L42">
-        <v>0.7730515040147998</v>
+        <v>0.5254153293633883</v>
       </c>
       <c r="M42">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="P42">
-        <v>25.77644917330479</v>
+        <v>17.51932628275605</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2500,49 +2500,49 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4176138903891644</v>
+        <v>0.2838371552555028</v>
       </c>
       <c r="C43">
-        <v>7.142312566146606</v>
+        <v>4.8543732078249</v>
       </c>
       <c r="D43">
-        <v>0.005707122386815392</v>
+        <v>0.003878926013354433</v>
       </c>
       <c r="E43">
-        <v>2.064273760333495</v>
+        <v>1.403012699734763</v>
       </c>
       <c r="F43">
-        <v>0.9673987997517997</v>
+        <v>0.6575062028307073</v>
       </c>
       <c r="G43">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="H43">
-        <v>0.03040221067239071</v>
+        <v>0.0206632901570598</v>
       </c>
       <c r="I43">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="J43">
-        <v>0.3729068505180137</v>
+        <v>0.2534513867048047</v>
       </c>
       <c r="K43">
-        <v>1.878096191645188</v>
+        <v>1.276474496181162</v>
       </c>
       <c r="L43">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M43">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N43">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O43">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P43">
-        <v>26.30200598328944</v>
+        <v>17.87652836176781</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.6878346429939177</v>
+        <v>0.4674964910090634</v>
       </c>
       <c r="C44">
-        <v>11.76380893247677</v>
+        <v>7.995438224652774</v>
       </c>
       <c r="D44">
-        <v>0.004637036939287507</v>
+        <v>0.003151627385850476</v>
       </c>
       <c r="E44">
-        <v>1.677222430270965</v>
+        <v>1.139947818534495</v>
       </c>
       <c r="F44">
-        <v>1.055344145183782</v>
+        <v>0.7172794939971351</v>
       </c>
       <c r="G44">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="H44">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I44">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J44">
-        <v>1.025493838924538</v>
+        <v>0.6969913134382131</v>
       </c>
       <c r="K44">
-        <v>5.164764527024265</v>
+        <v>3.510304864498196</v>
       </c>
       <c r="L44">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M44">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="P44">
-        <v>35.45402504789648</v>
+        <v>24.09682686218759</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.634972028386336</v>
+        <v>1.111231738549322</v>
       </c>
       <c r="C45">
-        <v>27.96238710537135</v>
+        <v>19.00502974828179</v>
       </c>
       <c r="D45">
-        <v>0.003923646640935582</v>
+        <v>0.002666761634181173</v>
       </c>
       <c r="E45">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="F45">
-        <v>1.670961563207654</v>
+        <v>1.135692532162131</v>
       </c>
       <c r="G45">
-        <v>8.027277329340514</v>
+        <v>5.455851958094063</v>
       </c>
       <c r="H45">
-        <v>0.4864353707582514</v>
+        <v>0.3306126425129567</v>
       </c>
       <c r="I45">
-        <v>13.7096471282181</v>
+        <v>9.317954526857289</v>
       </c>
       <c r="J45">
-        <v>2.237441103108082</v>
+        <v>1.520708320228829</v>
       </c>
       <c r="K45">
-        <v>11.26857714987112</v>
+        <v>7.658846977086974</v>
       </c>
       <c r="L45">
-        <v>2.319154512044398</v>
+        <v>1.576245988090165</v>
       </c>
       <c r="M45">
-        <v>14.12551133203701</v>
+        <v>9.600602483022158</v>
       </c>
       <c r="N45">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O45">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P45">
-        <v>85.35526281245306</v>
+        <v>58.01290507888981</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>2.988805293961665</v>
+        <v>2.031383562122715</v>
       </c>
       <c r="C46">
-        <v>51.11655071850021</v>
+        <v>34.74208276188407</v>
       </c>
       <c r="D46">
-        <v>0.003923646640935582</v>
+        <v>0.002666761634181173</v>
       </c>
       <c r="E46">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="F46">
-        <v>3.605759162711253</v>
+        <v>2.450704937823546</v>
       </c>
       <c r="G46">
-        <v>17.32201950015585</v>
+        <v>11.77315422536087</v>
       </c>
       <c r="H46">
-        <v>1.489708322947145</v>
+        <v>1.01250121769593</v>
       </c>
       <c r="I46">
-        <v>41.98579433016792</v>
+        <v>28.53623573850044</v>
       </c>
       <c r="J46">
-        <v>2.843414735199854</v>
+        <v>1.932566823624136</v>
       </c>
       <c r="K46">
-        <v>14.32048346129455</v>
+        <v>9.733118033381361</v>
       </c>
       <c r="L46">
-        <v>4.561003873687317</v>
+        <v>3.09995044324399</v>
       </c>
       <c r="M46">
-        <v>27.78017228633945</v>
+        <v>18.88118488327691</v>
       </c>
       <c r="N46">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O46">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P46">
-        <v>170.4163962083155</v>
+        <v>115.8259009622204</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>4.08060631458693</v>
+        <v>2.773441484359325</v>
       </c>
       <c r="C47">
-        <v>69.78926330973319</v>
+        <v>47.43325454704724</v>
       </c>
       <c r="D47">
-        <v>0.006063817535991355</v>
+        <v>0.004121358889189086</v>
       </c>
       <c r="E47">
-        <v>2.193290870354339</v>
+        <v>1.490700993468186</v>
       </c>
       <c r="F47">
-        <v>4.573157962463056</v>
+        <v>3.108211140654252</v>
       </c>
       <c r="G47">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="H47">
-        <v>1.185686216223238</v>
+        <v>0.8058683161253318</v>
       </c>
       <c r="I47">
-        <v>33.41726487503161</v>
+        <v>22.71251415921463</v>
       </c>
       <c r="J47">
-        <v>2.959948125986734</v>
+        <v>2.011770381969389</v>
       </c>
       <c r="K47">
-        <v>14.90738852118368</v>
+        <v>10.13201631343797</v>
       </c>
       <c r="L47">
-        <v>3.710647219271038</v>
+        <v>2.521993580944263</v>
       </c>
       <c r="M47">
-        <v>22.60081813125921</v>
+        <v>15.36096397283545</v>
       </c>
       <c r="N47">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O47">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P47">
-        <v>183.1077781155326</v>
+        <v>124.4517772074976</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>4.503679210079224</v>
+        <v>3.060988929226011</v>
       </c>
       <c r="C48">
-        <v>77.02493943883596</v>
+        <v>52.35108361379793</v>
       </c>
       <c r="D48">
-        <v>0.00891737872939905</v>
+        <v>0.006060821895866301</v>
       </c>
       <c r="E48">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="F48">
-        <v>5.276720725918906</v>
+        <v>3.586397469985675</v>
       </c>
       <c r="G48">
-        <v>25.34929682949636</v>
+        <v>17.22900618345494</v>
       </c>
       <c r="H48">
-        <v>0.6080442134478141</v>
+        <v>0.4132658031411959</v>
       </c>
       <c r="I48">
-        <v>17.13705891027262</v>
+        <v>11.64744315857161</v>
       </c>
       <c r="J48">
-        <v>3.659148470708008</v>
+        <v>2.486991732040896</v>
       </c>
       <c r="K48">
-        <v>18.4288188805184</v>
+        <v>12.52540599377765</v>
       </c>
       <c r="L48">
-        <v>3.865257520073997</v>
+        <v>2.62707664681694</v>
       </c>
       <c r="M48">
-        <v>23.54251888672835</v>
+        <v>16.00100413837026</v>
       </c>
       <c r="N48">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O48">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P48">
-        <v>184.8338667149102</v>
+        <v>125.6249376052749</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>3.788549541569673</v>
+        <v>2.574940990161033</v>
       </c>
       <c r="C49">
-        <v>64.79431269157838</v>
+        <v>44.03836609451609</v>
       </c>
       <c r="D49">
-        <v>0.01747806230962214</v>
+        <v>0.01187921091589795</v>
       </c>
       <c r="E49">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="F49">
-        <v>5.980283489374761</v>
+        <v>4.064583799317099</v>
       </c>
       <c r="G49">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="H49">
-        <v>0.4104298440772746</v>
+        <v>0.2789544171203072</v>
       </c>
       <c r="I49">
-        <v>11.56751476443401</v>
+        <v>7.862024132035837</v>
       </c>
       <c r="J49">
-        <v>4.49818888437354</v>
+        <v>3.057257352126707</v>
       </c>
       <c r="K49">
-        <v>22.65453531172007</v>
+        <v>15.39747361018527</v>
       </c>
       <c r="L49">
-        <v>5.179445076899157</v>
+        <v>3.520282706734701</v>
       </c>
       <c r="M49">
-        <v>31.54697530821599</v>
+        <v>21.44134554541615</v>
       </c>
       <c r="N49">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O49">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P49">
-        <v>186.4683271054831</v>
+        <v>126.735821601987</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.563810121327484</v>
+        <v>3.772172526260294</v>
       </c>
       <c r="C2">
-        <v>43.84799851773864</v>
+        <v>64.51422200270986</v>
       </c>
       <c r="D2">
-        <v>0.01575813692925239</v>
+        <v>0.02318518469643753</v>
       </c>
       <c r="E2">
-        <v>5.699739092672475</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="F2">
-        <v>4.303676963982811</v>
+        <v>6.332064871102689</v>
       </c>
       <c r="G2">
-        <v>20.67480742014592</v>
+        <v>30.41915619539564</v>
       </c>
       <c r="H2">
-        <v>0.1653063212564784</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I2">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J2">
-        <v>3.738407953895869</v>
+        <v>5.500376045140702</v>
       </c>
       <c r="K2">
-        <v>18.82799881867214</v>
+        <v>27.70191882676652</v>
       </c>
       <c r="L2">
-        <v>3.047408910307651</v>
+        <v>4.483698723285839</v>
       </c>
       <c r="M2">
-        <v>18.5611648005095</v>
+        <v>27.30932190860489</v>
       </c>
       <c r="N2">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O2">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P2">
-        <v>127.4366150060761</v>
+        <v>187.4994150177659</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.665843085635016</v>
+        <v>3.922295166596268</v>
       </c>
       <c r="C3">
-        <v>45.59303463819853</v>
+        <v>67.08171998400439</v>
       </c>
       <c r="D3">
-        <v>0.01381867392257517</v>
+        <v>0.02033162350302984</v>
       </c>
       <c r="E3">
-        <v>4.998232742805094</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="F3">
-        <v>3.945037216984243</v>
+        <v>5.804392798510797</v>
       </c>
       <c r="G3">
-        <v>18.95190680180043</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="H3">
-        <v>0.1653063212564784</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I3">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J3">
-        <v>2.930531658774305</v>
+        <v>4.311735459114533</v>
       </c>
       <c r="K3">
-        <v>14.75923636209469</v>
+        <v>21.71548721589748</v>
       </c>
       <c r="L3">
-        <v>2.62707664681694</v>
+        <v>3.865257520073997</v>
       </c>
       <c r="M3">
-        <v>16.00100413837026</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="N3">
-        <v>0.1089552662859759</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O3">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P3">
-        <v>119.1409014922499</v>
+        <v>175.2938065203712</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.810544380471156</v>
+        <v>4.135196365618194</v>
       </c>
       <c r="C4">
-        <v>48.06781313630535</v>
+        <v>70.72289893929482</v>
       </c>
       <c r="D4">
-        <v>0.01478840542591378</v>
+        <v>0.02175840409973369</v>
       </c>
       <c r="E4">
-        <v>5.348985917738784</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="F4">
-        <v>3.885263925817816</v>
+        <v>5.716447453078818</v>
       </c>
       <c r="G4">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H4">
-        <v>0.1549746761779484</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I4">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J4">
-        <v>3.310708738831512</v>
+        <v>4.871095734891553</v>
       </c>
       <c r="K4">
-        <v>16.67394810636643</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="L4">
-        <v>2.364368982135248</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M4">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N4">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O4">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P4">
-        <v>121.7292987335222</v>
+        <v>179.1021544472916</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.795703222026423</v>
+        <v>4.11336034520569</v>
       </c>
       <c r="C5">
-        <v>47.8139897006021</v>
+        <v>70.34944468747018</v>
       </c>
       <c r="D5">
-        <v>0.01090947941255934</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E5">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F5">
-        <v>3.586397469985675</v>
+        <v>5.276720725918906</v>
       </c>
       <c r="G5">
-        <v>17.22900618345494</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="H5">
-        <v>0.1549746761779484</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I5">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J5">
-        <v>3.342390162169612</v>
+        <v>4.917709091206306</v>
       </c>
       <c r="K5">
-        <v>16.83350741838908</v>
+        <v>24.76739352732091</v>
       </c>
       <c r="L5">
-        <v>1.78641211983552</v>
+        <v>2.628375113650319</v>
       </c>
       <c r="M5">
-        <v>10.88068281409177</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="N5">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O5">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P5">
-        <v>114.0792983338232</v>
+        <v>167.8465934002501</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.890315607111588</v>
+        <v>4.252564975335415</v>
       </c>
       <c r="C6">
-        <v>49.43211410321038</v>
+        <v>72.73021554285235</v>
       </c>
       <c r="D6">
-        <v>0.01309137529507121</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E6">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F6">
-        <v>4.243903672816381</v>
+        <v>6.244119525670707</v>
       </c>
       <c r="G6">
-        <v>20.38765731708834</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="H6">
-        <v>0.1963012564920681</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I6">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J6">
-        <v>2.867168812098103</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K6">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L6">
-        <v>1.891495185708197</v>
+        <v>2.78298541445328</v>
       </c>
       <c r="M6">
-        <v>11.52072297962659</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="N6">
-        <v>0.05943014524689595</v>
+        <v>0.08744046966158478</v>
       </c>
       <c r="O6">
-        <v>0.9392403686600335</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="P6">
-        <v>119.1492619233294</v>
+        <v>175.3061073487997</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.94968024089052</v>
+        <v>4.339909056985435</v>
       </c>
       <c r="C7">
-        <v>50.44740784602347</v>
+        <v>74.22403255015102</v>
       </c>
       <c r="D7">
-        <v>0.01139434516422865</v>
+        <v>0.01676467201127022</v>
       </c>
       <c r="E7">
-        <v>4.121349805470867</v>
+        <v>6.063804170979642</v>
       </c>
       <c r="F7">
-        <v>4.423223546315666</v>
+        <v>6.507955561966651</v>
       </c>
       <c r="G7">
-        <v>21.24910762626109</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="H7">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I7">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J7">
-        <v>2.518673155378997</v>
+        <v>3.705761827022761</v>
       </c>
       <c r="K7">
-        <v>12.6849653058003</v>
+        <v>18.66358090447405</v>
       </c>
       <c r="L7">
-        <v>1.523704455153825</v>
+        <v>2.241849361642919</v>
       </c>
       <c r="M7">
-        <v>9.280582400254749</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="N7">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O7">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P7">
-        <v>116.8011938729495</v>
+        <v>171.8513593876494</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.231662251340433</v>
+        <v>4.754793444823033</v>
       </c>
       <c r="C8">
-        <v>55.27005312438544</v>
+        <v>81.31966333481951</v>
       </c>
       <c r="D8">
-        <v>0.01260650954340191</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E8">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F8">
-        <v>4.184130381649953</v>
+        <v>6.156174180238724</v>
       </c>
       <c r="G8">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H8">
-        <v>0.3512759326700164</v>
+        <v>0.5168375814306421</v>
       </c>
       <c r="I8">
-        <v>9.900326684785869</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="J8">
-        <v>2.740443118745703</v>
+        <v>4.032055321226022</v>
       </c>
       <c r="K8">
-        <v>13.80188048995882</v>
+        <v>20.30691507216359</v>
       </c>
       <c r="L8">
-        <v>0.9982891257904372</v>
+        <v>1.468797857628119</v>
       </c>
       <c r="M8">
-        <v>6.080381572580698</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="N8">
-        <v>0.1089552662859759</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O8">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P8">
-        <v>123.0622436217822</v>
+        <v>181.0633363790917</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.565588316346906</v>
+        <v>5.246103904104407</v>
       </c>
       <c r="C9">
-        <v>60.98108042770886</v>
+        <v>89.72238400087438</v>
       </c>
       <c r="D9">
-        <v>0.01066704653672469</v>
+        <v>0.01569458656374233</v>
       </c>
       <c r="E9">
-        <v>3.858284924270599</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="F9">
-        <v>4.00481050815067</v>
+        <v>5.892338143942778</v>
       </c>
       <c r="G9">
-        <v>19.23905690485802</v>
+        <v>28.30671479293761</v>
       </c>
       <c r="H9">
-        <v>0.6405619948688535</v>
+        <v>0.9424685308441119</v>
       </c>
       <c r="I9">
-        <v>18.05353689578599</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="J9">
-        <v>2.566195290386148</v>
+        <v>3.775681861494887</v>
       </c>
       <c r="K9">
-        <v>12.92430427383427</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="L9">
-        <v>0.9982891257904372</v>
+        <v>1.468797857628119</v>
       </c>
       <c r="M9">
-        <v>6.080381572580698</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="N9">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O9">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P9">
-        <v>134.0878728806763</v>
+        <v>197.2855111139341</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.42645245592754</v>
+        <v>5.041391212737167</v>
       </c>
       <c r="C10">
-        <v>58.60148571799076</v>
+        <v>86.2212503900182</v>
       </c>
       <c r="D10">
-        <v>0.0121216437917326</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E10">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F10">
-        <v>4.961183166813519</v>
+        <v>7.299463670854489</v>
       </c>
       <c r="G10">
-        <v>23.83345855377934</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="H10">
-        <v>0.7748733808897422</v>
+        <v>1.140082900214652</v>
       </c>
       <c r="I10">
-        <v>21.83895592232177</v>
+        <v>32.13198545676116</v>
       </c>
       <c r="J10">
-        <v>1.378141915207376</v>
+        <v>2.0276809996917</v>
       </c>
       <c r="K10">
-        <v>6.94083007298507</v>
+        <v>10.21214804207071</v>
       </c>
       <c r="L10">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M10">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N10">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O10">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P10">
-        <v>131.8671153931838</v>
+        <v>194.018077105417</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.478473460270273</v>
+        <v>3.646615408888389</v>
       </c>
       <c r="C11">
-        <v>42.38851376244484</v>
+        <v>62.36686005471806</v>
       </c>
       <c r="D11">
-        <v>0.009939747909220736</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E11">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F11">
-        <v>3.526624178819247</v>
+        <v>5.188775380486924</v>
       </c>
       <c r="G11">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H11">
-        <v>0.6198987047117938</v>
+        <v>0.9120663201717211</v>
       </c>
       <c r="I11">
-        <v>17.47116473785742</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="J11">
-        <v>0.7128320251072634</v>
+        <v>1.048800517081914</v>
       </c>
       <c r="K11">
-        <v>3.590084520509519</v>
+        <v>5.28214553900209</v>
       </c>
       <c r="L11">
-        <v>0.6304983952360658</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M11">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N11">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O11">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P11">
-        <v>96.30468190649566</v>
+        <v>141.6945319842262</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.072196747845729</v>
+        <v>3.048854350096058</v>
       </c>
       <c r="C12">
-        <v>35.44009721006807</v>
+        <v>52.14354991101806</v>
       </c>
       <c r="D12">
-        <v>0.01090947941255934</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E12">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F12">
-        <v>3.108211140654252</v>
+        <v>4.573157962463056</v>
       </c>
       <c r="G12">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H12">
-        <v>0.485587318690905</v>
+        <v>0.7144519508011817</v>
       </c>
       <c r="I12">
-        <v>13.68574571132164</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="J12">
-        <v>0.6336284667620118</v>
+        <v>0.9322671262950343</v>
       </c>
       <c r="K12">
-        <v>3.191186240452906</v>
+        <v>4.695240479112969</v>
       </c>
       <c r="L12">
-        <v>0.7881229940450823</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M12">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="N12">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O12">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P12">
-        <v>83.75954547036714</v>
+        <v>123.2366834060918</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.710443510755384</v>
+        <v>2.516601352541239</v>
       </c>
       <c r="C13">
-        <v>29.25315096480103</v>
+        <v>43.04060252279198</v>
       </c>
       <c r="D13">
-        <v>0.007272986275039562</v>
+        <v>0.01070085447527886</v>
       </c>
       <c r="E13">
-        <v>2.630648812002681</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="F13">
-        <v>2.510478228989972</v>
+        <v>3.693704508143234</v>
       </c>
       <c r="G13">
-        <v>12.06030432841846</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="H13">
-        <v>0.3616075777485465</v>
+        <v>0.5320386867668376</v>
       </c>
       <c r="I13">
-        <v>10.19151276375016</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="J13">
-        <v>0.3168142333810059</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K13">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L13">
-        <v>0.3677907305543717</v>
+        <v>0.5411360528103599</v>
       </c>
       <c r="M13">
-        <v>2.240140579371835</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="N13">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O13">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P13">
-        <v>63.57864800757724</v>
+        <v>93.54422438537621</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.309732232747614</v>
+        <v>1.927028801403594</v>
       </c>
       <c r="C14">
-        <v>22.39991820081292</v>
+        <v>32.95733772352619</v>
       </c>
       <c r="D14">
-        <v>0.006545687647535606</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E14">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F14">
-        <v>1.315012405661415</v>
+        <v>1.934797599503599</v>
       </c>
       <c r="G14">
-        <v>6.317302267266809</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="H14">
-        <v>0.1653063212564784</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I14">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J14">
-        <v>0.3960177917262574</v>
+        <v>0.5826669539343965</v>
       </c>
       <c r="K14">
-        <v>1.994491400283066</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="L14">
-        <v>0.2627076646816942</v>
+        <v>0.3865257520073999</v>
       </c>
       <c r="M14">
-        <v>1.600100413837026</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="N14">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O14">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P14">
-        <v>43.29303083710533</v>
+        <v>63.69768967824768</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.769885094320482</v>
+        <v>1.132743558898713</v>
       </c>
       <c r="C15">
-        <v>13.16709072710675</v>
+        <v>19.37293931340419</v>
       </c>
       <c r="D15">
-        <v>0.002909194510015825</v>
+        <v>0.004280341790111544</v>
       </c>
       <c r="E15">
-        <v>1.052259524801072</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="F15">
-        <v>0.7172794939971351</v>
+        <v>1.055344145183782</v>
       </c>
       <c r="G15">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H15">
-        <v>0.103316450785299</v>
+        <v>0.1520110533619535</v>
       </c>
       <c r="I15">
-        <v>2.911860789642902</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="J15">
-        <v>0.3168142333810059</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K15">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L15">
-        <v>0.3677907305543717</v>
+        <v>0.5411360528103599</v>
       </c>
       <c r="M15">
-        <v>2.240140579371835</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="N15">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O15">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P15">
-        <v>26.85718626103946</v>
+        <v>39.51538349263265</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.6196183650675682</v>
+        <v>0.9116538522220973</v>
       </c>
       <c r="C16">
-        <v>10.59712844061121</v>
+        <v>15.59171501367952</v>
       </c>
       <c r="D16">
-        <v>0.005575956144196997</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E16">
-        <v>2.016830755868722</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="F16">
-        <v>0.836826076329991</v>
+        <v>1.231234836047745</v>
       </c>
       <c r="G16">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H16">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I16">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J16">
-        <v>0.1742478283595533</v>
+        <v>0.2563734597311345</v>
       </c>
       <c r="K16">
-        <v>0.8775762161245491</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="L16">
-        <v>0.4203322634907105</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M16">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="N16">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O16">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P16">
-        <v>23.19939626472151</v>
+        <v>34.13362186521691</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3932906987854025</v>
+        <v>0.578654540931391</v>
       </c>
       <c r="C17">
-        <v>6.726321046136461</v>
+        <v>9.896537673353473</v>
       </c>
       <c r="D17">
-        <v>0.007515419150874214</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E17">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F17">
-        <v>0.4184130381649955</v>
+        <v>0.6156174180238727</v>
       </c>
       <c r="G17">
-        <v>2.010050721403076</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="H17">
-        <v>0.0103316450785299</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I17">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J17">
-        <v>0.3643363683881568</v>
+        <v>0.5360535976196447</v>
       </c>
       <c r="K17">
-        <v>1.834932088260421</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="L17">
-        <v>0.4203322634907105</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M17">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="P17">
-        <v>17.75520713569826</v>
+        <v>26.12350423231157</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,43 +1274,43 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2689959968107707</v>
+        <v>0.3957778699766589</v>
       </c>
       <c r="C18">
-        <v>4.600549772121635</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="D18">
-        <v>0.006545687647535606</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E18">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F18">
-        <v>0.4184130381649955</v>
+        <v>0.6156174180238727</v>
       </c>
       <c r="G18">
-        <v>2.010050721403076</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="H18">
-        <v>0.0103316450785299</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I18">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J18">
-        <v>0.1900885400286036</v>
+        <v>0.2796801378885103</v>
       </c>
       <c r="K18">
-        <v>0.9573558721358718</v>
+        <v>1.408572143733891</v>
       </c>
       <c r="L18">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M18">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P18">
-        <v>15.2192790558989</v>
+        <v>22.39235497456617</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,43 +1318,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2782717208387281</v>
+        <v>0.4094253827344747</v>
       </c>
       <c r="C19">
-        <v>4.759189419436173</v>
+        <v>7.002267221712358</v>
       </c>
       <c r="D19">
-        <v>0.005575956144196997</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E19">
-        <v>2.016830755868722</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="F19">
-        <v>0.5977329116642792</v>
+        <v>0.8794534543198177</v>
       </c>
       <c r="G19">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H19">
-        <v>0.05165822539264948</v>
+        <v>0.07600552668097676</v>
       </c>
       <c r="I19">
-        <v>1.455930394821451</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="J19">
-        <v>0.3326549450500562</v>
+        <v>0.4894402413048929</v>
       </c>
       <c r="K19">
-        <v>1.675372776237776</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="L19">
-        <v>0.4728737964270494</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M19">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="P19">
-        <v>17.39777267736355</v>
+        <v>25.59760551912184</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1362,43 +1362,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4767722150370211</v>
+        <v>0.7014821557517338</v>
       </c>
       <c r="C20">
-        <v>8.154077871967313</v>
+        <v>11.99721783986717</v>
       </c>
       <c r="D20">
-        <v>0.003394060261685129</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E20">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F20">
-        <v>0.8965993674964188</v>
+        <v>1.319180181479726</v>
       </c>
       <c r="G20">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H20">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I20">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J20">
-        <v>0.6653098901001124</v>
+        <v>0.9788804826097858</v>
       </c>
       <c r="K20">
-        <v>3.350745552475551</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="L20">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M20">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P20">
-        <v>24.0845175603394</v>
+        <v>35.43591418630695</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.105666304132547</v>
+        <v>1.626783520731645</v>
       </c>
       <c r="C21">
-        <v>18.90984595989307</v>
+        <v>27.82234176093712</v>
       </c>
       <c r="D21">
-        <v>0.002909194510015825</v>
+        <v>0.004280341790111544</v>
       </c>
       <c r="E21">
-        <v>1.052259524801072</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="F21">
-        <v>2.092065190824977</v>
+        <v>3.078087090119362</v>
       </c>
       <c r="G21">
-        <v>10.05025360701538</v>
+        <v>14.78708981720621</v>
       </c>
       <c r="H21">
-        <v>0.3926025129841362</v>
+        <v>0.5776420027754234</v>
       </c>
       <c r="I21">
-        <v>11.06507100064303</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="J21">
-        <v>1.140531240171621</v>
+        <v>1.678080827331061</v>
       </c>
       <c r="K21">
-        <v>5.744135232815229</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="L21">
-        <v>1.523704455153825</v>
+        <v>2.241849361642919</v>
       </c>
       <c r="M21">
-        <v>9.280582400254749</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="N21">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O21">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P21">
-        <v>62.5260717088508</v>
+        <v>91.99555299086877</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.968308638732604</v>
+        <v>2.896002207208519</v>
       </c>
       <c r="C22">
-        <v>33.66333316014521</v>
+        <v>49.52937014824542</v>
       </c>
       <c r="D22">
-        <v>0.009697315033386082</v>
+        <v>0.01426780596703848</v>
       </c>
       <c r="E22">
-        <v>3.507531749336908</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="F22">
-        <v>3.76571734348496</v>
+        <v>5.540556762214854</v>
       </c>
       <c r="G22">
-        <v>18.09045649262769</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="H22">
-        <v>1.01250121769593</v>
+        <v>1.489708322947145</v>
       </c>
       <c r="I22">
-        <v>28.53623573850044</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="J22">
-        <v>1.900885400286035</v>
+        <v>2.796801378885101</v>
       </c>
       <c r="K22">
-        <v>9.573558721358717</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="L22">
-        <v>2.364368982135248</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M22">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N22">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O22">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P22">
-        <v>119.6257239121261</v>
+        <v>176.007133064002</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.725207719413945</v>
+        <v>4.00963924824629</v>
       </c>
       <c r="C23">
-        <v>46.6083283810116</v>
+        <v>68.57553699130304</v>
       </c>
       <c r="D23">
-        <v>0.004848657516693041</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E23">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F23">
-        <v>2.510478228989972</v>
+        <v>3.693704508143234</v>
       </c>
       <c r="G23">
-        <v>12.06030432841846</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="H23">
-        <v>0.8471948964394518</v>
+        <v>1.246490637568019</v>
       </c>
       <c r="I23">
-        <v>23.87725847507181</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="J23">
-        <v>2.249381057005142</v>
+        <v>3.309548298347372</v>
       </c>
       <c r="K23">
-        <v>11.32871115360781</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="L23">
-        <v>2.154202850389892</v>
+        <v>3.169511166460679</v>
       </c>
       <c r="M23">
-        <v>13.12082339346361</v>
+        <v>19.30486548711725</v>
       </c>
       <c r="N23">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O23">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P23">
-        <v>120.9049558725084</v>
+        <v>177.8892863543438</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.188993920811827</v>
+        <v>4.692014886137081</v>
       </c>
       <c r="C24">
-        <v>54.54031074673855</v>
+        <v>80.2459823608236</v>
       </c>
       <c r="D24">
-        <v>0.005818389020031649</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E24">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F24">
-        <v>3.108211140654252</v>
+        <v>4.573157962463056</v>
       </c>
       <c r="G24">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H24">
-        <v>0.3719392228270763</v>
+        <v>0.547239792103033</v>
       </c>
       <c r="I24">
-        <v>10.48269884271445</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="J24">
-        <v>2.391947462026595</v>
+        <v>3.519308401763753</v>
       </c>
       <c r="K24">
-        <v>12.04672805770972</v>
+        <v>17.72453280865146</v>
       </c>
       <c r="L24">
-        <v>2.994867377371312</v>
+        <v>4.406393572884359</v>
       </c>
       <c r="M24">
-        <v>18.2411447177421</v>
+        <v>26.83847153087032</v>
       </c>
       <c r="N24">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O24">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P24">
-        <v>125.7405449714216</v>
+        <v>185.0039615775461</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.574940990161033</v>
+        <v>3.788549541569673</v>
       </c>
       <c r="C25">
-        <v>44.03836609451609</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="D25">
-        <v>0.01187921091589795</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E25">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F25">
-        <v>4.064583799317099</v>
+        <v>5.980283489374761</v>
       </c>
       <c r="G25">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H25">
-        <v>0.2789544171203072</v>
+        <v>0.4104298440772746</v>
       </c>
       <c r="I25">
-        <v>7.862024132035837</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="J25">
-        <v>3.057257352126707</v>
+        <v>4.49818888437354</v>
       </c>
       <c r="K25">
-        <v>15.39747361018527</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="L25">
-        <v>3.520282706734701</v>
+        <v>5.179445076899157</v>
       </c>
       <c r="M25">
-        <v>21.44134554541615</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="N25">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O25">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P25">
-        <v>126.735821601987</v>
+        <v>186.4683271054831</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.636160768745552</v>
+        <v>3.878623125771257</v>
       </c>
       <c r="C26">
-        <v>45.08538776679202</v>
+        <v>66.3348114803551</v>
       </c>
       <c r="D26">
-        <v>0.01309137529507121</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E26">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F26">
-        <v>3.885263925817816</v>
+        <v>5.716447453078818</v>
       </c>
       <c r="G26">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H26">
-        <v>0.1653063212564784</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I26">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J26">
-        <v>3.991859340600676</v>
+        <v>5.873282895658713</v>
       </c>
       <c r="K26">
-        <v>20.1044733148533</v>
+        <v>29.5800150184117</v>
       </c>
       <c r="L26">
-        <v>3.625365772607378</v>
+        <v>5.334055377702118</v>
       </c>
       <c r="M26">
-        <v>22.08138571095095</v>
+        <v>32.48867606368512</v>
       </c>
       <c r="N26">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O26">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P26">
-        <v>131.3116469772071</v>
+        <v>193.2008080414866</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.589782148605765</v>
+        <v>3.810385561982179</v>
       </c>
       <c r="C27">
-        <v>44.29218953021937</v>
+        <v>65.16776694340304</v>
       </c>
       <c r="D27">
-        <v>0.01575813692925239</v>
+        <v>0.02318518469643753</v>
       </c>
       <c r="E27">
-        <v>5.699739092672475</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="F27">
-        <v>3.466850887652819</v>
+        <v>5.100830035054941</v>
       </c>
       <c r="G27">
-        <v>16.65470597733977</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="H27">
-        <v>0.1343113860208887</v>
+        <v>0.1976143693705396</v>
       </c>
       <c r="I27">
-        <v>3.785419026535775</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="J27">
-        <v>3.310708738831512</v>
+        <v>4.871095734891553</v>
       </c>
       <c r="K27">
-        <v>16.67394810636643</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="L27">
-        <v>3.362658107925684</v>
+        <v>4.947529625694722</v>
       </c>
       <c r="M27">
-        <v>20.48128529711393</v>
+        <v>30.13442417501229</v>
       </c>
       <c r="N27">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O27">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P27">
-        <v>121.9653622070741</v>
+        <v>179.4494781987577</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.643581347967919</v>
+        <v>3.88954113597751</v>
       </c>
       <c r="C28">
-        <v>45.21229948464364</v>
+        <v>66.52153860626744</v>
       </c>
       <c r="D28">
-        <v>0.0121216437917326</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E28">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F28">
-        <v>3.048437849487823</v>
+        <v>4.485212617031072</v>
       </c>
       <c r="G28">
-        <v>14.64465525593669</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="H28">
-        <v>0.1963012564920681</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I28">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J28">
-        <v>2.803805965421902</v>
+        <v>4.125282033855526</v>
       </c>
       <c r="K28">
-        <v>14.12099911400411</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="L28">
-        <v>2.469452048007924</v>
+        <v>3.633342068869561</v>
       </c>
       <c r="M28">
-        <v>15.04094389006804</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="N28">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O28">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P28">
-        <v>112.2733341562795</v>
+        <v>165.1894510490009</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.797558366832014</v>
+        <v>4.116089847757252</v>
       </c>
       <c r="C29">
-        <v>47.84571763006499</v>
+        <v>70.39612646894827</v>
       </c>
       <c r="D29">
-        <v>0.01090947941255934</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E29">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F29">
-        <v>4.423223546315666</v>
+        <v>6.507955561966651</v>
       </c>
       <c r="G29">
-        <v>21.24910762626109</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="H29">
-        <v>0.2582911269632474</v>
+        <v>0.3800276334048839</v>
       </c>
       <c r="I29">
-        <v>7.279651974107258</v>
+        <v>10.71066181892039</v>
       </c>
       <c r="J29">
-        <v>3.19982375714816</v>
+        <v>4.707948987789922</v>
       </c>
       <c r="K29">
-        <v>16.11549051428717</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="L29">
-        <v>2.416910515071587</v>
+        <v>3.556036918468079</v>
       </c>
       <c r="M29">
-        <v>14.72092380730063</v>
+        <v>21.65911737579007</v>
       </c>
       <c r="N29">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O29">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P29">
-        <v>126.4273676752334</v>
+        <v>186.0144941876559</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.456211722603174</v>
+        <v>3.613861378269632</v>
       </c>
       <c r="C30">
-        <v>42.00777860888999</v>
+        <v>61.80667867698107</v>
       </c>
       <c r="D30">
-        <v>0.01042461366089004</v>
+        <v>0.01533789141456637</v>
       </c>
       <c r="E30">
-        <v>3.770596630537177</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="F30">
-        <v>4.482996837482097</v>
+        <v>6.595900907398633</v>
       </c>
       <c r="G30">
-        <v>21.53625772931867</v>
+        <v>31.68662103687046</v>
       </c>
       <c r="H30">
-        <v>0.1653063212564784</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I30">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J30">
-        <v>2.914690947105254</v>
+        <v>4.288428780957157</v>
       </c>
       <c r="K30">
-        <v>14.67945670608337</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="L30">
-        <v>1.418621389281148</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M30">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N30">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O30">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P30">
-        <v>108.0734216895761</v>
+        <v>159.010056448829</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.888460462306</v>
+        <v>4.249835472783849</v>
       </c>
       <c r="C31">
-        <v>49.40038617374748</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="D31">
-        <v>0.008000284902543519</v>
+        <v>0.01177093992280675</v>
       </c>
       <c r="E31">
-        <v>2.89371369320295</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="F31">
-        <v>3.227757722987108</v>
+        <v>4.749048653327015</v>
       </c>
       <c r="G31">
-        <v>15.50610556510944</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="H31">
-        <v>0.1549746761779484</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I31">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J31">
-        <v>2.851328100429054</v>
+        <v>4.195202068327655</v>
       </c>
       <c r="K31">
-        <v>14.36033808203807</v>
+        <v>21.12858215600836</v>
       </c>
       <c r="L31">
-        <v>2.206744383326231</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M31">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N31">
-        <v>0.1485753631172399</v>
+        <v>0.218601174153962</v>
       </c>
       <c r="O31">
-        <v>2.348100921650083</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="P31">
-        <v>113.8031200896895</v>
+        <v>167.4402481813879</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.300302609147316</v>
+        <v>4.85578503923087</v>
       </c>
       <c r="C32">
-        <v>56.44398651451301</v>
+        <v>83.04688924950857</v>
       </c>
       <c r="D32">
-        <v>0.01066704653672469</v>
+        <v>0.01569458656374233</v>
       </c>
       <c r="E32">
-        <v>3.858284924270599</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="F32">
-        <v>3.885263925817816</v>
+        <v>5.716447453078818</v>
       </c>
       <c r="G32">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H32">
-        <v>0.3409442875914866</v>
+        <v>0.5016364760944468</v>
       </c>
       <c r="I32">
-        <v>9.609140605821581</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="J32">
-        <v>2.756283830414751</v>
+        <v>4.0553619993834</v>
       </c>
       <c r="K32">
-        <v>13.88166014597014</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="L32">
-        <v>1.78641211983552</v>
+        <v>2.628375113650319</v>
       </c>
       <c r="M32">
-        <v>10.88068281409177</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="N32">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O32">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P32">
-        <v>126.916391293614</v>
+        <v>186.7340020180534</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.61938751570906</v>
+        <v>5.325259478099738</v>
       </c>
       <c r="C33">
-        <v>61.90119038213319</v>
+        <v>91.07615566373877</v>
       </c>
       <c r="D33">
-        <v>0.008000284902543519</v>
+        <v>0.01177093992280675</v>
       </c>
       <c r="E33">
-        <v>2.89371369320295</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="F33">
-        <v>2.928891267154968</v>
+        <v>4.309321926167107</v>
       </c>
       <c r="G33">
-        <v>14.07035504982153</v>
+        <v>20.7019257440887</v>
       </c>
       <c r="H33">
-        <v>0.5785721243976742</v>
+        <v>0.85126189882694</v>
       </c>
       <c r="I33">
-        <v>16.30642042200025</v>
+        <v>23.99188247438166</v>
       </c>
       <c r="J33">
-        <v>2.249381057005142</v>
+        <v>3.309548298347372</v>
       </c>
       <c r="K33">
-        <v>11.32871115360781</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="L33">
-        <v>0.89320605991776</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M33">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N33">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O33">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P33">
-        <v>123.3832860164569</v>
+        <v>181.5356908997649</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,49 +2056,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.77707482418434</v>
+        <v>5.557267194982606</v>
       </c>
       <c r="C34">
-        <v>64.59806438648032</v>
+        <v>95.04410708937579</v>
       </c>
       <c r="D34">
-        <v>0.005575956144196997</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E34">
-        <v>2.016830755868722</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="F34">
-        <v>3.347304305319964</v>
+        <v>4.924939344190982</v>
       </c>
       <c r="G34">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H34">
-        <v>0.7438784456541526</v>
+        <v>1.094479584206066</v>
       </c>
       <c r="I34">
-        <v>20.96539768542889</v>
+        <v>30.84670603849071</v>
       </c>
       <c r="J34">
-        <v>1.520708320228829</v>
+        <v>2.237441103108082</v>
       </c>
       <c r="K34">
-        <v>7.658846977086974</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="L34">
-        <v>0.4728737964270494</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M34">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N34">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O34">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P34">
-        <v>124.8993673972105</v>
+        <v>183.7663243169902</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2106,49 +2106,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.649146782384693</v>
+        <v>3.8977296436322</v>
       </c>
       <c r="C35">
-        <v>45.30748327303237</v>
+        <v>66.66158395070165</v>
       </c>
       <c r="D35">
-        <v>0.005091090392527693</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E35">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F35">
-        <v>2.749571393655684</v>
+        <v>4.045485889871162</v>
       </c>
       <c r="G35">
-        <v>13.20890474064879</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="H35">
-        <v>0.5579088342406143</v>
+        <v>0.8208596881545491</v>
       </c>
       <c r="I35">
-        <v>15.72404826407167</v>
+        <v>23.13502952886803</v>
       </c>
       <c r="J35">
-        <v>0.8870798534668164</v>
+        <v>1.305173976813047</v>
       </c>
       <c r="K35">
-        <v>4.467660736634067</v>
+        <v>6.573336670758156</v>
       </c>
       <c r="L35">
-        <v>0.7881229940450823</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M35">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="N35">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O35">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P35">
-        <v>93.81899880074104</v>
+        <v>138.0373089151239</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2156,49 +2156,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.344903034267683</v>
+        <v>3.450091225175841</v>
       </c>
       <c r="C36">
-        <v>40.10410284111551</v>
+        <v>59.00577178829615</v>
       </c>
       <c r="D36">
-        <v>0.003394060261685129</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E36">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F36">
-        <v>1.852972026159266</v>
+        <v>2.726305708391434</v>
       </c>
       <c r="G36">
-        <v>8.90165319478505</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="H36">
-        <v>0.5992354145547341</v>
+        <v>0.8816641094993306</v>
       </c>
       <c r="I36">
-        <v>16.88879257992884</v>
+        <v>24.84873541989531</v>
       </c>
       <c r="J36">
-        <v>0.6969913134382131</v>
+        <v>1.025493838924538</v>
       </c>
       <c r="K36">
-        <v>3.510304864498196</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="L36">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M36">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N36">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O36">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P36">
-        <v>82.51096366068758</v>
+        <v>121.3996261450717</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2206,49 +2206,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.875551398453028</v>
+        <v>2.759527079630361</v>
       </c>
       <c r="C37">
-        <v>32.07693668699983</v>
+        <v>47.19528107434128</v>
       </c>
       <c r="D37">
-        <v>0.003394060261685129</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E37">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F37">
-        <v>2.03229189965855</v>
+        <v>2.990141744687381</v>
       </c>
       <c r="G37">
-        <v>9.763103503957799</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="H37">
-        <v>0.3306126425129567</v>
+        <v>0.4864353707582514</v>
       </c>
       <c r="I37">
-        <v>9.317954526857289</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="J37">
-        <v>0.6177877550929614</v>
+        <v>0.9089604481376584</v>
       </c>
       <c r="K37">
-        <v>3.111406584441583</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="L37">
-        <v>0.4728737964270494</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M37">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N37">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O37">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P37">
-        <v>64.3755100544419</v>
+        <v>94.71665954170751</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2256,49 +2256,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.443302658750204</v>
+        <v>2.123552985116143</v>
       </c>
       <c r="C38">
-        <v>24.68432912214228</v>
+        <v>36.31842598994811</v>
       </c>
       <c r="D38">
-        <v>0.005818389020031649</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E38">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F38">
-        <v>1.195465823328558</v>
+        <v>1.758906908639635</v>
       </c>
       <c r="G38">
-        <v>5.743002061151644</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="H38">
-        <v>0.1653063212564784</v>
+        <v>0.2432176853791257</v>
       </c>
       <c r="I38">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="J38">
-        <v>0.4593806384024586</v>
+        <v>0.6758936665638996</v>
       </c>
       <c r="K38">
-        <v>2.313610024328356</v>
+        <v>3.404049347356903</v>
       </c>
       <c r="L38">
-        <v>0.4728737964270494</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M38">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N38">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O38">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P38">
-        <v>46.4596560640468</v>
+        <v>68.35679316748991</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,49 +2306,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.9016003755174796</v>
+        <v>1.326538240059698</v>
       </c>
       <c r="C39">
-        <v>15.4197737189732</v>
+        <v>22.68734579834805</v>
       </c>
       <c r="D39">
-        <v>0.004606224640858389</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E39">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F39">
-        <v>0.836826076329991</v>
+        <v>1.231234836047745</v>
       </c>
       <c r="G39">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H39">
-        <v>0.07232151554970928</v>
+        <v>0.1064077373533675</v>
       </c>
       <c r="I39">
-        <v>2.038302552750032</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="J39">
-        <v>0.2376106750357544</v>
+        <v>0.3496001723606377</v>
       </c>
       <c r="K39">
-        <v>1.19669484016984</v>
+        <v>1.760715179667363</v>
       </c>
       <c r="L39">
-        <v>0.3152491976180329</v>
+        <v>0.4638309024088798</v>
       </c>
       <c r="M39">
-        <v>1.920120496604431</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="N39">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O39">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P39">
-        <v>28.79572978258166</v>
+        <v>42.36759183368372</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2356,49 +2356,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.6845484332632712</v>
+        <v>1.007186441526808</v>
       </c>
       <c r="C40">
-        <v>11.70760597181299</v>
+        <v>17.22557736541239</v>
       </c>
       <c r="D40">
-        <v>0.009939747909220736</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E40">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F40">
-        <v>0.6575062028307073</v>
+        <v>0.9673987997517997</v>
       </c>
       <c r="G40">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H40">
-        <v>0.04132658031411959</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I40">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J40">
-        <v>0.2217699633667041</v>
+        <v>0.3262934942032619</v>
       </c>
       <c r="K40">
-        <v>1.116915184158517</v>
+        <v>1.643334167689539</v>
       </c>
       <c r="L40">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M40">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="N40">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O40">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P40">
-        <v>26.78929552025992</v>
+        <v>39.41549482107085</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2406,49 +2406,49 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.4897582286761616</v>
+        <v>0.7205886736126753</v>
       </c>
       <c r="C41">
-        <v>8.376173378207666</v>
+        <v>12.32399031021375</v>
       </c>
       <c r="D41">
-        <v>0.007515419150874214</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E41">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F41">
-        <v>0.4184130381649955</v>
+        <v>0.6156174180238727</v>
       </c>
       <c r="G41">
-        <v>2.010050721403076</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="H41">
-        <v>0.0103316450785299</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I41">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J41">
-        <v>0.3960177917262574</v>
+        <v>0.5826669539343965</v>
       </c>
       <c r="K41">
-        <v>1.994491400283066</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="L41">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M41">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="N41">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O41">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P41">
-        <v>20.97689766578336</v>
+        <v>30.86362613315169</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2456,43 +2456,43 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.3617532370903467</v>
+        <v>0.5322529975548175</v>
       </c>
       <c r="C42">
-        <v>6.186946245267027</v>
+        <v>9.10294738822607</v>
       </c>
       <c r="D42">
-        <v>0.004363791765023737</v>
+        <v>0.00642051268516732</v>
       </c>
       <c r="E42">
-        <v>1.578389287201609</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="F42">
-        <v>0.6575062028307073</v>
+        <v>0.9673987997517997</v>
       </c>
       <c r="G42">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H42">
-        <v>0.0206632901570598</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I42">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J42">
-        <v>0.2059292516976539</v>
+        <v>0.3029868160458861</v>
       </c>
       <c r="K42">
-        <v>1.037135528147194</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="L42">
-        <v>0.5254153293633883</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M42">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="P42">
-        <v>17.51932628275605</v>
+        <v>25.77644917330479</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2500,49 +2500,49 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2838371552555028</v>
+        <v>0.4176138903891644</v>
       </c>
       <c r="C43">
-        <v>4.8543732078249</v>
+        <v>7.142312566146606</v>
       </c>
       <c r="D43">
-        <v>0.003878926013354433</v>
+        <v>0.005707122386815392</v>
       </c>
       <c r="E43">
-        <v>1.403012699734763</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="F43">
-        <v>0.6575062028307073</v>
+        <v>0.9673987997517997</v>
       </c>
       <c r="G43">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H43">
-        <v>0.0206632901570598</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I43">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J43">
-        <v>0.2534513867048047</v>
+        <v>0.3729068505180137</v>
       </c>
       <c r="K43">
-        <v>1.276474496181162</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="L43">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M43">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N43">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O43">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P43">
-        <v>17.87652836176781</v>
+        <v>26.30200598328944</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4674964910090634</v>
+        <v>0.6878346429939177</v>
       </c>
       <c r="C44">
-        <v>7.995438224652774</v>
+        <v>11.76380893247677</v>
       </c>
       <c r="D44">
-        <v>0.003151627385850476</v>
+        <v>0.004637036939287507</v>
       </c>
       <c r="E44">
-        <v>1.139947818534495</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="F44">
-        <v>0.7172794939971351</v>
+        <v>1.055344145183782</v>
       </c>
       <c r="G44">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H44">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I44">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J44">
-        <v>0.6969913134382131</v>
+        <v>1.025493838924538</v>
       </c>
       <c r="K44">
-        <v>3.510304864498196</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="L44">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M44">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="P44">
-        <v>24.09682686218759</v>
+        <v>35.45402504789648</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.111231738549322</v>
+        <v>1.634972028386336</v>
       </c>
       <c r="C45">
-        <v>19.00502974828179</v>
+        <v>27.96238710537135</v>
       </c>
       <c r="D45">
-        <v>0.002666761634181173</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E45">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F45">
-        <v>1.135692532162131</v>
+        <v>1.670961563207654</v>
       </c>
       <c r="G45">
-        <v>5.455851958094063</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="H45">
-        <v>0.3306126425129567</v>
+        <v>0.4864353707582514</v>
       </c>
       <c r="I45">
-        <v>9.317954526857289</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="J45">
-        <v>1.520708320228829</v>
+        <v>2.237441103108082</v>
       </c>
       <c r="K45">
-        <v>7.658846977086974</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="L45">
-        <v>1.576245988090165</v>
+        <v>2.319154512044398</v>
       </c>
       <c r="M45">
-        <v>9.600602483022158</v>
+        <v>14.12551133203701</v>
       </c>
       <c r="N45">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O45">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P45">
-        <v>58.01290507888981</v>
+        <v>85.35526281245306</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>2.031383562122715</v>
+        <v>2.988805293961665</v>
       </c>
       <c r="C46">
-        <v>34.74208276188407</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="D46">
-        <v>0.002666761634181173</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E46">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F46">
-        <v>2.450704937823546</v>
+        <v>3.605759162711253</v>
       </c>
       <c r="G46">
-        <v>11.77315422536087</v>
+        <v>17.32201950015585</v>
       </c>
       <c r="H46">
-        <v>1.01250121769593</v>
+        <v>1.489708322947145</v>
       </c>
       <c r="I46">
-        <v>28.53623573850044</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="J46">
-        <v>1.932566823624136</v>
+        <v>2.843414735199854</v>
       </c>
       <c r="K46">
-        <v>9.733118033381361</v>
+        <v>14.32048346129455</v>
       </c>
       <c r="L46">
-        <v>3.09995044324399</v>
+        <v>4.561003873687317</v>
       </c>
       <c r="M46">
-        <v>18.88118488327691</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="N46">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O46">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P46">
-        <v>115.8259009622204</v>
+        <v>170.4163962083155</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.773441484359325</v>
+        <v>4.08060631458693</v>
       </c>
       <c r="C47">
-        <v>47.43325454704724</v>
+        <v>69.78926330973319</v>
       </c>
       <c r="D47">
-        <v>0.004121358889189086</v>
+        <v>0.006063817535991355</v>
       </c>
       <c r="E47">
-        <v>1.490700993468186</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="F47">
-        <v>3.108211140654252</v>
+        <v>4.573157962463056</v>
       </c>
       <c r="G47">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H47">
-        <v>0.8058683161253318</v>
+        <v>1.185686216223238</v>
       </c>
       <c r="I47">
-        <v>22.71251415921463</v>
+        <v>33.41726487503161</v>
       </c>
       <c r="J47">
-        <v>2.011770381969389</v>
+        <v>2.959948125986734</v>
       </c>
       <c r="K47">
-        <v>10.13201631343797</v>
+        <v>14.90738852118368</v>
       </c>
       <c r="L47">
-        <v>2.521993580944263</v>
+        <v>3.710647219271038</v>
       </c>
       <c r="M47">
-        <v>15.36096397283545</v>
+        <v>22.60081813125921</v>
       </c>
       <c r="N47">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O47">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P47">
-        <v>124.4517772074976</v>
+        <v>183.1077781155326</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.060988929226011</v>
+        <v>4.503679210079224</v>
       </c>
       <c r="C48">
-        <v>52.35108361379793</v>
+        <v>77.02493943883596</v>
       </c>
       <c r="D48">
-        <v>0.006060821895866301</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E48">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F48">
-        <v>3.586397469985675</v>
+        <v>5.276720725918906</v>
       </c>
       <c r="G48">
-        <v>17.22900618345494</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="H48">
-        <v>0.4132658031411959</v>
+        <v>0.6080442134478141</v>
       </c>
       <c r="I48">
-        <v>11.64744315857161</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="J48">
-        <v>2.486991732040896</v>
+        <v>3.659148470708008</v>
       </c>
       <c r="K48">
-        <v>12.52540599377765</v>
+        <v>18.4288188805184</v>
       </c>
       <c r="L48">
-        <v>2.62707664681694</v>
+        <v>3.865257520073997</v>
       </c>
       <c r="M48">
-        <v>16.00100413837026</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="N48">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O48">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P48">
-        <v>125.6249376052749</v>
+        <v>184.8338667149102</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.574940990161033</v>
+        <v>3.788549541569673</v>
       </c>
       <c r="C49">
-        <v>44.03836609451609</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="D49">
-        <v>0.01187921091589795</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E49">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F49">
-        <v>4.064583799317099</v>
+        <v>5.980283489374761</v>
       </c>
       <c r="G49">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H49">
-        <v>0.2789544171203072</v>
+        <v>0.4104298440772746</v>
       </c>
       <c r="I49">
-        <v>7.862024132035837</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="J49">
-        <v>3.057257352126707</v>
+        <v>4.49818888437354</v>
       </c>
       <c r="K49">
-        <v>15.39747361018527</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="L49">
-        <v>3.520282706734701</v>
+        <v>5.179445076899157</v>
       </c>
       <c r="M49">
-        <v>21.44134554541615</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="N49">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O49">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P49">
-        <v>126.735821601987</v>
+        <v>186.4683271054831</v>
       </c>
     </row>
   </sheetData>
